--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_8_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>838822.2374237212</v>
+        <v>831627.6909765794</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7263267.641149116</v>
+        <v>7263267.641149119</v>
       </c>
     </row>
     <row r="9">
@@ -671,10 +671,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>395.1186500774904</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>70.27912141425922</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>84.22139172498656</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -838,7 +838,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>295.1159105673767</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>355.546756558266</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>101.7177065691262</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>48.97699675700473</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>339.0399185806814</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>117.3222545813214</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.6390067882883</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>22.53590636345487</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>382.0026247848239</v>
+        <v>365.9707017312293</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>135.275240877313</v>
       </c>
       <c r="H12" t="n">
-        <v>92.26024958059011</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I12" t="n">
         <v>18.18624318344743</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.2570059982656</v>
       </c>
       <c r="H13" t="n">
-        <v>146.8105729959039</v>
+        <v>121.4609220342222</v>
       </c>
       <c r="I13" t="n">
-        <v>72.62350367340397</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1607,19 +1607,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>323.9918595228954</v>
+        <v>388.7598212753467</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1701,7 +1701,7 @@
         <v>135.275240877313</v>
       </c>
       <c r="H15" t="n">
-        <v>92.26024958059011</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I15" t="n">
         <v>18.18624318344743</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>114.7393847283404</v>
       </c>
       <c r="G16" t="n">
         <v>166.2570059982656</v>
@@ -1783,7 +1783,7 @@
         <v>146.8105729959039</v>
       </c>
       <c r="I16" t="n">
-        <v>72.62350367340397</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1844,22 +1844,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>382.0026247848239</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.74469222902944</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>135.275240877313</v>
       </c>
       <c r="H18" t="n">
-        <v>92.26024958059011</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I18" t="n">
         <v>18.18624318344743</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>72.54803721488466</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>68.15918296044094</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H19" t="n">
         <v>146.8105729959039</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>99.32764374521085</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>193.7981713870603</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>74.60278739733346</v>
+        <v>74.60278739733211</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2175,7 +2175,7 @@
         <v>135.275240877313</v>
       </c>
       <c r="H21" t="n">
-        <v>92.26024958059011</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I21" t="n">
         <v>18.18624318344743</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T22" t="n">
-        <v>1.276475703477697</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U22" t="n">
         <v>286.2244489913895</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>23.53922413409395</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2412,7 +2412,7 @@
         <v>135.275240877313</v>
       </c>
       <c r="H24" t="n">
-        <v>92.26024958059011</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I24" t="n">
         <v>18.18624318344743</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>99.16808433098211</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>127.8184828220411</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2244489913895</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2564,13 +2564,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>299.8862654257798</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>109.7914711642122</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806811</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2649,7 +2649,7 @@
         <v>135.275240877313</v>
       </c>
       <c r="H27" t="n">
-        <v>92.26024958059011</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I27" t="n">
         <v>18.18624318344743</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>144.3183305302368</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>181.1084558854147</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2244489913895</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>109.7914711642122</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2801,13 +2801,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>299.8862654257798</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2852,10 +2852,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806811</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2886,7 +2886,7 @@
         <v>135.275240877313</v>
       </c>
       <c r="H30" t="n">
-        <v>92.26024958059011</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I30" t="n">
         <v>18.18624318344743</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>152.6049647870755</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.2570059982656</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>99.32764374521085</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>193.2295494539048</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T31" t="n">
         <v>220.5367941620016</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,19 +3035,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>61.44749355031655</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>18.92583389251521</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>100.6979348173399</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3123,7 @@
         <v>135.275240877313</v>
       </c>
       <c r="H33" t="n">
-        <v>92.26024958059011</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I33" t="n">
         <v>18.18624318344743</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>146.8105729959039</v>
+        <v>53.27732104186419</v>
       </c>
       <c r="I34" t="n">
-        <v>103.3051669679944</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T34" t="n">
-        <v>140.9073550365844</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,10 +3266,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>277.8276099403688</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>323.991859522895</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.4371413535349</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3360,7 +3360,7 @@
         <v>135.275240877313</v>
       </c>
       <c r="H36" t="n">
-        <v>92.26024958059011</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I36" t="n">
         <v>18.18624318344743</v>
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,25 +3469,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>99.32764374521085</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S37" t="n">
         <v>193.7981713870603</v>
       </c>
       <c r="T37" t="n">
-        <v>105.1658588139903</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2244489913895</v>
+        <v>120.9171166811594</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3506,16 +3506,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>282.2858188478303</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.4371413535349</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>81.1220065286369</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3597,7 +3597,7 @@
         <v>135.275240877313</v>
       </c>
       <c r="H39" t="n">
-        <v>92.26024958059011</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I39" t="n">
         <v>18.18624318344743</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>109.1473547688838</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I40" t="n">
-        <v>40.41278024443299</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,10 +3721,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3740,16 +3740,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>76.29859821814372</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.3636878106237</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,13 +3797,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3834,7 +3834,7 @@
         <v>135.275240877313</v>
       </c>
       <c r="H42" t="n">
-        <v>92.26024958059011</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I42" t="n">
         <v>18.18624318344743</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3904,10 +3904,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.2570059982656</v>
@@ -3916,7 +3916,7 @@
         <v>146.8105729959039</v>
       </c>
       <c r="I43" t="n">
-        <v>103.3051669679944</v>
+        <v>12.10871007105107</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>99.32764374521085</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2244489913895</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>27.07310607554908</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>411.4371413535349</v>
+        <v>306.7707492127581</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I44" t="n">
-        <v>61.44749355031655</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>120.9327970537822</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0364052149085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>240.170309577705</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4071,7 @@
         <v>135.275240877313</v>
       </c>
       <c r="H45" t="n">
-        <v>92.26024958059011</v>
+        <v>92.26024958059013</v>
       </c>
       <c r="I45" t="n">
         <v>18.18624318344743</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>67.26267987806708</v>
+        <v>7.183916764144033</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T46" t="n">
         <v>220.5367941620016</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>792.1236065739693</v>
+        <v>864.0386341629926</v>
       </c>
       <c r="C2" t="n">
-        <v>792.1236065739693</v>
+        <v>864.0386341629926</v>
       </c>
       <c r="D2" t="n">
-        <v>792.1236065739693</v>
+        <v>864.0386341629926</v>
       </c>
       <c r="E2" t="n">
-        <v>792.1236065739693</v>
+        <v>864.0386341629926</v>
       </c>
       <c r="F2" t="n">
-        <v>381.1377017843616</v>
+        <v>453.052729373385</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2626.160079488668</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2295.097192145097</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1942.328536874983</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1568.862778613903</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>1178.723446638091</v>
+        <v>1250.638474227114</v>
       </c>
     </row>
     <row r="3">
@@ -4413,16 +4413,16 @@
         <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>433.0923781427078</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1937.083492693021</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.120975752609</v>
+        <v>1601.952160546617</v>
       </c>
       <c r="D5" t="n">
-        <v>1209.855277145859</v>
+        <v>1243.686461939866</v>
       </c>
       <c r="E5" t="n">
-        <v>824.0670245476144</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F5" t="n">
-        <v>413.0811197580069</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4604,13 +4604,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>2323.683332757143</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,19 +4656,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326646</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>325.6879402326646</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D7" t="n">
-        <v>325.6879402326646</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E7" t="n">
-        <v>325.6879402326646</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4768,7 +4768,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629043</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1920.409918978289</v>
+        <v>1369.486513173877</v>
       </c>
       <c r="C8" t="n">
-        <v>1551.447402037877</v>
+        <v>1000.523996233465</v>
       </c>
       <c r="D8" t="n">
-        <v>1193.181703431127</v>
+        <v>1000.523996233465</v>
       </c>
       <c r="E8" t="n">
-        <v>807.3934508328825</v>
+        <v>1000.523996233465</v>
       </c>
       <c r="F8" t="n">
-        <v>396.407546043275</v>
+        <v>589.5380914438576</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>172.4503096802851</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,25 +4802,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>287.334585005844</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>426.6632408470972</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1058.381051830409</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1685.688719890255</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2232.849924657333</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4835,19 +4835,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.457387763373</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.394500419803</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1759.625845149689</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018222</v>
+        <v>1759.625845149689</v>
       </c>
       <c r="Y8" t="n">
-        <v>2307.009759042411</v>
+        <v>1369.486513173877</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>240.2100533406172</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L9" t="n">
-        <v>744.5715932067358</v>
+        <v>625.9123413498401</v>
       </c>
       <c r="M9" t="n">
-        <v>1385.11694267384</v>
+        <v>1266.457690816945</v>
       </c>
       <c r="N9" t="n">
-        <v>2052.661342700851</v>
+        <v>1934.002090843955</v>
       </c>
       <c r="O9" t="n">
-        <v>2212.173655369611</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>651.4366193059393</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>482.5004363780324</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>482.5004363780324</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>482.5004363780324</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>482.5004363780324</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>313.8935913734158</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>159.6389482731809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>620.8081818444795</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>620.8081818444795</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>366.1236936385926</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>76.706523601632</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>833.085084136179</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1236.578376364604</v>
+        <v>1589.347031634718</v>
       </c>
       <c r="C11" t="n">
-        <v>1236.578376364604</v>
+        <v>1220.384514694307</v>
       </c>
       <c r="D11" t="n">
-        <v>1236.578376364604</v>
+        <v>1220.384514694307</v>
       </c>
       <c r="E11" t="n">
-        <v>850.7901237663598</v>
+        <v>834.5962620960622</v>
       </c>
       <c r="F11" t="n">
-        <v>439.8042189767522</v>
+        <v>423.6103573064547</v>
       </c>
       <c r="G11" t="n">
         <v>53.94298182036445</v>
@@ -5039,16 +5039,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>199.5143021373487</v>
+        <v>199.5143021373485</v>
       </c>
       <c r="K11" t="n">
-        <v>468.4264940665502</v>
+        <v>468.4264940665499</v>
       </c>
       <c r="L11" t="n">
-        <v>838.9376088552594</v>
+        <v>838.9376088552592</v>
       </c>
       <c r="M11" t="n">
-        <v>1282.872051350723</v>
+        <v>1282.872051350724</v>
       </c>
       <c r="N11" t="n">
         <v>1738.603625623768</v>
@@ -5078,13 +5078,13 @@
         <v>2366.086203674652</v>
       </c>
       <c r="W11" t="n">
-        <v>2013.317548404538</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X11" t="n">
-        <v>2013.317548404538</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y11" t="n">
-        <v>1623.178216428726</v>
+        <v>1975.94687169884</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>121.8264159807866</v>
+        <v>246.6565409677914</v>
       </c>
       <c r="K12" t="n">
-        <v>316.0048420001851</v>
+        <v>537.8115956207102</v>
       </c>
       <c r="L12" t="n">
-        <v>623.4242400445569</v>
+        <v>845.230993665082</v>
       </c>
       <c r="M12" t="n">
-        <v>1001.525045698358</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N12" t="n">
-        <v>1404.041699519502</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O12" t="n">
-        <v>2071.586099546512</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P12" t="n">
-        <v>2438.195165861565</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q12" t="n">
         <v>2560.986726597623</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1057.385797430379</v>
+        <v>767.9686273934174</v>
       </c>
       <c r="C13" t="n">
-        <v>888.4496145024718</v>
+        <v>599.0324444655105</v>
       </c>
       <c r="D13" t="n">
-        <v>738.3329750901361</v>
+        <v>448.9158050531747</v>
       </c>
       <c r="E13" t="n">
-        <v>590.419881507743</v>
+        <v>448.9158050531747</v>
       </c>
       <c r="F13" t="n">
-        <v>443.5299340098326</v>
+        <v>448.9158050531747</v>
       </c>
       <c r="G13" t="n">
-        <v>275.5935643146148</v>
+        <v>280.979435357957</v>
       </c>
       <c r="H13" t="n">
-        <v>127.3000562379442</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>82.88339090485941</v>
+        <v>82.8833909048594</v>
       </c>
       <c r="K13" t="n">
         <v>260.2782098866545</v>
       </c>
       <c r="L13" t="n">
-        <v>542.8089378877605</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M13" t="n">
-        <v>851.0870999282812</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N13" t="n">
         <v>1157.469712732903</v>
@@ -5218,31 +5218,31 @@
         <v>1629.372157534689</v>
       </c>
       <c r="Q13" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R13" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S13" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="T13" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="U13" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="V13" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="W13" t="n">
-        <v>1687.816392302166</v>
+        <v>1398.399222265205</v>
       </c>
       <c r="X13" t="n">
-        <v>1459.826841404148</v>
+        <v>1170.409671367187</v>
       </c>
       <c r="Y13" t="n">
-        <v>1239.034262260618</v>
+        <v>949.6170922236571</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1546.944160717209</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="C14" t="n">
-        <v>1177.981643776797</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="D14" t="n">
-        <v>1177.981643776797</v>
+        <v>857.6155747668879</v>
       </c>
       <c r="E14" t="n">
-        <v>792.1933911785532</v>
+        <v>857.6155747668879</v>
       </c>
       <c r="F14" t="n">
-        <v>381.2074863889456</v>
+        <v>446.6296699772803</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5279,10 +5279,10 @@
         <v>199.5143021373487</v>
       </c>
       <c r="K14" t="n">
-        <v>468.42649406655</v>
+        <v>468.4264940665501</v>
       </c>
       <c r="L14" t="n">
-        <v>838.9376088552594</v>
+        <v>838.9376088552593</v>
       </c>
       <c r="M14" t="n">
         <v>1282.872051350724</v>
@@ -5312,16 +5312,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W14" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.683332757143</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y14" t="n">
-        <v>1933.544000781331</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="15">
@@ -5358,10 +5358,10 @@
         <v>246.6565409677914</v>
       </c>
       <c r="K15" t="n">
-        <v>440.8349669871899</v>
+        <v>440.8349669871898</v>
       </c>
       <c r="L15" t="n">
-        <v>748.2543650315617</v>
+        <v>748.2543650315615</v>
       </c>
       <c r="M15" t="n">
         <v>1126.355170685363</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1057.385797430379</v>
+        <v>1057.385797430378</v>
       </c>
       <c r="C16" t="n">
-        <v>888.4496145024718</v>
+        <v>888.4496145024714</v>
       </c>
       <c r="D16" t="n">
-        <v>738.3329750901361</v>
+        <v>738.3329750901356</v>
       </c>
       <c r="E16" t="n">
-        <v>590.419881507743</v>
+        <v>590.4198815077425</v>
       </c>
       <c r="F16" t="n">
-        <v>443.5299340098326</v>
+        <v>474.5215130952774</v>
       </c>
       <c r="G16" t="n">
-        <v>275.5935643146148</v>
+        <v>306.5851434000597</v>
       </c>
       <c r="H16" t="n">
-        <v>127.3000562379442</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="I16" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>82.88339090485941</v>
+        <v>82.8833909048594</v>
       </c>
       <c r="K16" t="n">
         <v>260.2782098866545</v>
       </c>
       <c r="L16" t="n">
-        <v>542.8089378877605</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M16" t="n">
-        <v>851.0870999282812</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N16" t="n">
         <v>1157.469712732903</v>
@@ -5455,25 +5455,25 @@
         <v>1629.372157534689</v>
       </c>
       <c r="Q16" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R16" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S16" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="T16" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="U16" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="V16" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="W16" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="X16" t="n">
         <v>1459.826841404148</v>
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1236.578376364604</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C17" t="n">
-        <v>1236.578376364604</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="D17" t="n">
-        <v>1236.578376364604</v>
+        <v>857.0866218757444</v>
       </c>
       <c r="E17" t="n">
-        <v>850.7901237663598</v>
+        <v>471.2983692775002</v>
       </c>
       <c r="F17" t="n">
-        <v>439.8042189767522</v>
+        <v>471.2983692775002</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>55.70529720322247</v>
       </c>
       <c r="H17" t="n">
         <v>53.94298182036445</v>
@@ -5513,13 +5513,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>199.5143021373484</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K17" t="n">
-        <v>468.4264940665499</v>
+        <v>468.42649406655</v>
       </c>
       <c r="L17" t="n">
-        <v>838.9376088552592</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M17" t="n">
         <v>1282.872051350724</v>
@@ -5549,16 +5549,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>2013.317548404538</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X17" t="n">
-        <v>2013.317548404538</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y17" t="n">
-        <v>1623.178216428726</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1067.468569516813</v>
+        <v>931.3062050962127</v>
       </c>
       <c r="C18" t="n">
-        <v>893.0155402356858</v>
+        <v>756.8531758150857</v>
       </c>
       <c r="D18" t="n">
-        <v>744.0811305744345</v>
+        <v>607.9187661538344</v>
       </c>
       <c r="E18" t="n">
-        <v>584.8436755689791</v>
+        <v>448.681311148379</v>
       </c>
       <c r="F18" t="n">
-        <v>438.309117595864</v>
+        <v>302.146753175264</v>
       </c>
       <c r="G18" t="n">
-        <v>301.6674601440327</v>
+        <v>165.5050957234327</v>
       </c>
       <c r="H18" t="n">
-        <v>208.4752888505073</v>
+        <v>72.31292442990731</v>
       </c>
       <c r="I18" t="n">
-        <v>190.1053462409645</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>257.9887804013866</v>
+        <v>121.8264159807866</v>
       </c>
       <c r="K18" t="n">
-        <v>452.1672064207851</v>
+        <v>316.0048420001851</v>
       </c>
       <c r="L18" t="n">
-        <v>759.5866044651569</v>
+        <v>623.4242400445569</v>
       </c>
       <c r="M18" t="n">
-        <v>1137.687410118958</v>
+        <v>1116.030173223836</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.204063940102</v>
+        <v>1518.54682704498</v>
       </c>
       <c r="O18" t="n">
-        <v>2000.713496501892</v>
+        <v>1864.551132081293</v>
       </c>
       <c r="P18" t="n">
-        <v>2574.357530282165</v>
+        <v>2438.195165861565</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="R18" t="n">
-        <v>2697.149091018222</v>
+        <v>2560.986726597623</v>
       </c>
       <c r="S18" t="n">
-        <v>2562.537125127303</v>
+        <v>2426.374760706703</v>
       </c>
       <c r="T18" t="n">
-        <v>2368.771343470031</v>
+        <v>2232.608979049431</v>
       </c>
       <c r="U18" t="n">
-        <v>2140.685170467312</v>
+        <v>2004.522806046712</v>
       </c>
       <c r="V18" t="n">
-        <v>1905.533062235569</v>
+        <v>1769.370697814969</v>
       </c>
       <c r="W18" t="n">
-        <v>1651.295705507368</v>
+        <v>1515.133341086767</v>
       </c>
       <c r="X18" t="n">
-        <v>1443.444205301835</v>
+        <v>1307.281840881235</v>
       </c>
       <c r="Y18" t="n">
-        <v>1235.683906536881</v>
+        <v>1099.521542116281</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>989.2886663766068</v>
+        <v>866.8551811071208</v>
       </c>
       <c r="C19" t="n">
-        <v>820.3524834486999</v>
+        <v>697.9189981792139</v>
       </c>
       <c r="D19" t="n">
-        <v>670.2358440363641</v>
+        <v>547.8023587668781</v>
       </c>
       <c r="E19" t="n">
-        <v>522.322750453971</v>
+        <v>474.5215130952774</v>
       </c>
       <c r="F19" t="n">
-        <v>375.4328029560606</v>
+        <v>474.5215130952774</v>
       </c>
       <c r="G19" t="n">
         <v>306.5851434000597</v>
@@ -5671,16 +5671,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>82.88339090485941</v>
+        <v>82.8833909048594</v>
       </c>
       <c r="K19" t="n">
         <v>260.2782098866545</v>
       </c>
       <c r="L19" t="n">
-        <v>542.8089378877605</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M19" t="n">
-        <v>851.0870999282812</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N19" t="n">
         <v>1157.469712732903</v>
@@ -5692,31 +5692,31 @@
         <v>1629.372157534689</v>
       </c>
       <c r="Q19" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R19" t="n">
-        <v>1587.485439024175</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S19" t="n">
-        <v>1391.729710350377</v>
+        <v>1492.060663628367</v>
       </c>
       <c r="T19" t="n">
-        <v>1391.729710350377</v>
+        <v>1269.296225080891</v>
       </c>
       <c r="U19" t="n">
-        <v>1391.729710350377</v>
+        <v>1269.296225080891</v>
       </c>
       <c r="V19" t="n">
-        <v>1391.729710350377</v>
+        <v>1269.296225080891</v>
       </c>
       <c r="W19" t="n">
-        <v>1391.729710350377</v>
+        <v>1269.296225080891</v>
       </c>
       <c r="X19" t="n">
-        <v>1391.729710350377</v>
+        <v>1269.296225080891</v>
       </c>
       <c r="Y19" t="n">
-        <v>1170.937131206847</v>
+        <v>1048.50364593736</v>
       </c>
     </row>
     <row r="20">
@@ -5741,52 +5741,52 @@
         <v>472.3148776583279</v>
       </c>
       <c r="G20" t="n">
-        <v>56.72180558405017</v>
+        <v>56.72180558405014</v>
       </c>
       <c r="H20" t="n">
-        <v>56.72180558405017</v>
+        <v>56.72180558405014</v>
       </c>
       <c r="I20" t="n">
-        <v>56.72180558405017</v>
+        <v>56.72180558405014</v>
       </c>
       <c r="J20" t="n">
-        <v>338.4554903216345</v>
+        <v>202.2931259010344</v>
       </c>
       <c r="K20" t="n">
-        <v>607.367682250836</v>
+        <v>471.2053178302358</v>
       </c>
       <c r="L20" t="n">
-        <v>977.8787970395454</v>
+        <v>841.7164326189452</v>
       </c>
       <c r="M20" t="n">
-        <v>1421.81323953501</v>
+        <v>1285.65087511441</v>
       </c>
       <c r="N20" t="n">
-        <v>1877.544813808054</v>
+        <v>1741.382449387454</v>
       </c>
       <c r="O20" t="n">
-        <v>2294.543955120662</v>
+        <v>2158.381590700062</v>
       </c>
       <c r="P20" t="n">
-        <v>2615.942073755914</v>
+        <v>2615.942073755913</v>
       </c>
       <c r="Q20" t="n">
-        <v>2809.125929301246</v>
+        <v>2809.125929301244</v>
       </c>
       <c r="R20" t="n">
-        <v>2836.090279202509</v>
+        <v>2836.090279202507</v>
       </c>
       <c r="S20" t="n">
-        <v>2836.090279202509</v>
+        <v>2836.090279202507</v>
       </c>
       <c r="T20" t="n">
-        <v>2836.090279202509</v>
+        <v>2836.090279202507</v>
       </c>
       <c r="U20" t="n">
-        <v>2836.090279202509</v>
+        <v>2836.090279202507</v>
       </c>
       <c r="V20" t="n">
-        <v>2836.090279202509</v>
+        <v>2836.090279202507</v>
       </c>
       <c r="W20" t="n">
         <v>2760.733928296111</v>
@@ -5823,28 +5823,28 @@
         <v>168.2839194871184</v>
       </c>
       <c r="H21" t="n">
-        <v>75.09174819359303</v>
+        <v>75.09174819359301</v>
       </c>
       <c r="I21" t="n">
-        <v>56.72180558405017</v>
+        <v>56.72180558405014</v>
       </c>
       <c r="J21" t="n">
         <v>249.4353647314771</v>
       </c>
       <c r="K21" t="n">
-        <v>443.6137907508756</v>
+        <v>540.5904193843962</v>
       </c>
       <c r="L21" t="n">
-        <v>751.0331887952474</v>
+        <v>848.009817428768</v>
       </c>
       <c r="M21" t="n">
-        <v>1129.133994449049</v>
+        <v>1226.110623082569</v>
       </c>
       <c r="N21" t="n">
-        <v>1531.650648270193</v>
+        <v>1628.627276903713</v>
       </c>
       <c r="O21" t="n">
-        <v>1877.654953306506</v>
+        <v>1974.631581940026</v>
       </c>
       <c r="P21" t="n">
         <v>2232.997474766761</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>225.6579885119571</v>
+        <v>604.1670082440488</v>
       </c>
       <c r="C22" t="n">
-        <v>56.72180558405017</v>
+        <v>604.1670082440488</v>
       </c>
       <c r="D22" t="n">
-        <v>56.72180558405017</v>
+        <v>604.1670082440488</v>
       </c>
       <c r="E22" t="n">
-        <v>56.72180558405017</v>
+        <v>456.2539146616557</v>
       </c>
       <c r="F22" t="n">
-        <v>56.72180558405017</v>
+        <v>309.3639671637453</v>
       </c>
       <c r="G22" t="n">
-        <v>56.72180558405017</v>
+        <v>309.3639671637453</v>
       </c>
       <c r="H22" t="n">
-        <v>56.72180558405017</v>
+        <v>161.0704590870748</v>
       </c>
       <c r="I22" t="n">
-        <v>56.72180558405017</v>
+        <v>56.72180558405014</v>
       </c>
       <c r="J22" t="n">
-        <v>85.66221466854513</v>
+        <v>85.66221466854509</v>
       </c>
       <c r="K22" t="n">
-        <v>263.0570336503403</v>
+        <v>263.0570336503401</v>
       </c>
       <c r="L22" t="n">
-        <v>545.5877616514463</v>
+        <v>545.587761651446</v>
       </c>
       <c r="M22" t="n">
-        <v>853.8659236919669</v>
+        <v>853.8659236919666</v>
       </c>
       <c r="N22" t="n">
         <v>1160.248536496589</v>
@@ -5929,31 +5929,31 @@
         <v>1632.150981298375</v>
       </c>
       <c r="Q22" t="n">
-        <v>1690.595216065852</v>
+        <v>1690.595216065851</v>
       </c>
       <c r="R22" t="n">
-        <v>1690.595216065852</v>
+        <v>1590.26426278786</v>
       </c>
       <c r="S22" t="n">
-        <v>1690.595216065852</v>
+        <v>1394.508534114062</v>
       </c>
       <c r="T22" t="n">
-        <v>1689.305846668399</v>
+        <v>1171.744095566586</v>
       </c>
       <c r="U22" t="n">
-        <v>1400.190241626592</v>
+        <v>882.628490524778</v>
       </c>
       <c r="V22" t="n">
-        <v>1145.505753420705</v>
+        <v>627.9440023188912</v>
       </c>
       <c r="W22" t="n">
-        <v>856.0885833837442</v>
+        <v>604.1670082440488</v>
       </c>
       <c r="X22" t="n">
-        <v>628.0990324857269</v>
+        <v>604.1670082440488</v>
       </c>
       <c r="Y22" t="n">
-        <v>407.3064533421968</v>
+        <v>604.1670082440488</v>
       </c>
     </row>
     <row r="23">
@@ -6057,7 +6057,7 @@
         <v>344.5833376784672</v>
       </c>
       <c r="G24" t="n">
-        <v>207.9416802266358</v>
+        <v>207.9416802266359</v>
       </c>
       <c r="H24" t="n">
         <v>114.7495089331105</v>
@@ -6069,22 +6069,22 @@
         <v>289.0931254709945</v>
       </c>
       <c r="K24" t="n">
-        <v>483.271551490393</v>
+        <v>580.2481801239137</v>
       </c>
       <c r="L24" t="n">
-        <v>790.6909495347647</v>
+        <v>887.6675781682854</v>
       </c>
       <c r="M24" t="n">
-        <v>1168.791755188566</v>
+        <v>1265.768383822087</v>
       </c>
       <c r="N24" t="n">
-        <v>1571.30840900971</v>
+        <v>1668.285037643231</v>
       </c>
       <c r="O24" t="n">
-        <v>1917.312714046023</v>
+        <v>2014.289342679544</v>
       </c>
       <c r="P24" t="n">
-        <v>2272.655235506278</v>
+        <v>2272.655235506279</v>
       </c>
       <c r="Q24" t="n">
         <v>2603.423311100826</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.3795663235676</v>
+        <v>3899.130551269632</v>
       </c>
       <c r="C25" t="n">
-        <v>96.3795663235676</v>
+        <v>3730.194368341725</v>
       </c>
       <c r="D25" t="n">
-        <v>96.3795663235676</v>
+        <v>3580.07772892939</v>
       </c>
       <c r="E25" t="n">
-        <v>96.3795663235676</v>
+        <v>3432.164635346996</v>
       </c>
       <c r="F25" t="n">
-        <v>96.3795663235676</v>
+        <v>3285.274687849086</v>
       </c>
       <c r="G25" t="n">
-        <v>96.3795663235676</v>
+        <v>3185.104905696579</v>
       </c>
       <c r="H25" t="n">
-        <v>96.3795663235676</v>
+        <v>3185.104905696579</v>
       </c>
       <c r="I25" t="n">
-        <v>96.3795663235676</v>
+        <v>3185.104905696579</v>
       </c>
       <c r="J25" t="n">
-        <v>125.3199754080626</v>
+        <v>3214.045314781074</v>
       </c>
       <c r="K25" t="n">
-        <v>302.7147943898577</v>
+        <v>3391.440133762869</v>
       </c>
       <c r="L25" t="n">
-        <v>585.2455223909636</v>
+        <v>3673.970861763975</v>
       </c>
       <c r="M25" t="n">
-        <v>893.5236844314843</v>
+        <v>3982.249023804496</v>
       </c>
       <c r="N25" t="n">
-        <v>1199.906297236106</v>
+        <v>4288.631636609118</v>
       </c>
       <c r="O25" t="n">
-        <v>1466.883934109557</v>
+        <v>4555.609273482569</v>
       </c>
       <c r="P25" t="n">
-        <v>1671.808742037892</v>
+        <v>4760.534081410903</v>
       </c>
       <c r="Q25" t="n">
-        <v>1730.252976805369</v>
+        <v>4818.97831617838</v>
       </c>
       <c r="R25" t="n">
-        <v>1730.252976805369</v>
+        <v>4818.97831617838</v>
       </c>
       <c r="S25" t="n">
-        <v>1601.143398197247</v>
+        <v>4818.97831617838</v>
       </c>
       <c r="T25" t="n">
-        <v>1378.37895964977</v>
+        <v>4818.97831617838</v>
       </c>
       <c r="U25" t="n">
-        <v>1089.263354607963</v>
+        <v>4818.97831617838</v>
       </c>
       <c r="V25" t="n">
-        <v>834.5788664020756</v>
+        <v>4818.97831617838</v>
       </c>
       <c r="W25" t="n">
-        <v>545.1616963651151</v>
+        <v>4529.561146141419</v>
       </c>
       <c r="X25" t="n">
-        <v>317.1721454670977</v>
+        <v>4301.571595243402</v>
       </c>
       <c r="Y25" t="n">
-        <v>96.3795663235676</v>
+        <v>4080.779016099872</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1469.874869587771</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C26" t="n">
-        <v>1100.912352647359</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D26" t="n">
-        <v>742.6466540406085</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E26" t="n">
-        <v>356.8584014423643</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F26" t="n">
-        <v>356.8584014423643</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G26" t="n">
-        <v>356.8584014423643</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J26" t="n">
-        <v>199.5143021373485</v>
+        <v>199.5143021373487</v>
       </c>
       <c r="K26" t="n">
-        <v>468.42649406655</v>
+        <v>468.4264940665501</v>
       </c>
       <c r="L26" t="n">
-        <v>838.9376088552592</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M26" t="n">
         <v>1282.872051350724</v>
@@ -6242,34 +6242,34 @@
         <v>2155.602766936376</v>
       </c>
       <c r="P26" t="n">
-        <v>2477.000885571629</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q26" t="n">
-        <v>2670.184741116961</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>2586.248615094777</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>2233.479959824662</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>1860.014201563582</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y26" t="n">
-        <v>1469.874869587771</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="27">
@@ -6297,31 +6297,31 @@
         <v>165.5050957234327</v>
       </c>
       <c r="H27" t="n">
-        <v>72.31292442990733</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J27" t="n">
-        <v>121.8264159807866</v>
+        <v>246.6565409677913</v>
       </c>
       <c r="K27" t="n">
-        <v>316.0048420001851</v>
+        <v>537.8115956207102</v>
       </c>
       <c r="L27" t="n">
-        <v>737.9293675700344</v>
+        <v>845.230993665082</v>
       </c>
       <c r="M27" t="n">
-        <v>1116.030173223836</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N27" t="n">
-        <v>1518.54682704498</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O27" t="n">
-        <v>1864.551132081293</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P27" t="n">
-        <v>2438.195165861565</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q27" t="n">
         <v>2560.986726597623</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>222.8791647482714</v>
+        <v>834.6213588829016</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036447</v>
+        <v>665.6851759549947</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036447</v>
+        <v>515.568536542659</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036447</v>
+        <v>367.6554429602659</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036447</v>
+        <v>221.8793515155822</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J28" t="n">
-        <v>82.88339090485943</v>
+        <v>82.88339090485938</v>
       </c>
       <c r="K28" t="n">
         <v>260.2782098866545</v>
       </c>
       <c r="L28" t="n">
-        <v>542.8089378877605</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M28" t="n">
-        <v>851.0870999282812</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N28" t="n">
         <v>1157.469712732903</v>
@@ -6403,31 +6403,31 @@
         <v>1629.372157534689</v>
       </c>
       <c r="Q28" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R28" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S28" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="T28" t="n">
-        <v>1504.878558074474</v>
+        <v>1465.051953754689</v>
       </c>
       <c r="U28" t="n">
-        <v>1215.762953032666</v>
+        <v>1465.051953754689</v>
       </c>
       <c r="V28" t="n">
-        <v>961.0784648267795</v>
+        <v>1465.051953754689</v>
       </c>
       <c r="W28" t="n">
-        <v>671.6612947898188</v>
+        <v>1465.051953754689</v>
       </c>
       <c r="X28" t="n">
-        <v>443.6717438918015</v>
+        <v>1237.062402856671</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.8791647482714</v>
+        <v>1016.269823713141</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1469.874869587771</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C29" t="n">
-        <v>1100.912352647359</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D29" t="n">
-        <v>742.6466540406085</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E29" t="n">
-        <v>356.8584014423643</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F29" t="n">
-        <v>356.8584014423643</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G29" t="n">
-        <v>356.8584014423643</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
         <v>199.5143021373487</v>
       </c>
       <c r="K29" t="n">
-        <v>468.4264940665502</v>
+        <v>468.4264940665501</v>
       </c>
       <c r="L29" t="n">
-        <v>838.9376088552596</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M29" t="n">
-        <v>1282.872051350724</v>
+        <v>1282.872051350723</v>
       </c>
       <c r="N29" t="n">
-        <v>1738.603625623769</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O29" t="n">
-        <v>2155.602766936376</v>
+        <v>2155.602766936375</v>
       </c>
       <c r="P29" t="n">
-        <v>2477.000885571628</v>
+        <v>2477.000885571627</v>
       </c>
       <c r="Q29" t="n">
-        <v>2670.18474111696</v>
+        <v>2670.184741116959</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W29" t="n">
-        <v>2344.380435748109</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X29" t="n">
-        <v>1970.914677487029</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y29" t="n">
-        <v>1580.775345511217</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>165.5050957234327</v>
       </c>
       <c r="H30" t="n">
-        <v>72.31292442990733</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
-        <v>246.6565409677914</v>
+        <v>246.6565409677913</v>
       </c>
       <c r="K30" t="n">
-        <v>440.8349669871899</v>
+        <v>537.8115956207102</v>
       </c>
       <c r="L30" t="n">
-        <v>748.2543650315617</v>
+        <v>845.230993665082</v>
       </c>
       <c r="M30" t="n">
-        <v>1126.355170685363</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.871824506507</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O30" t="n">
-        <v>1874.87612954282</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P30" t="n">
         <v>2230.218651003075</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1548.441741236217</v>
+        <v>1063.275680536421</v>
       </c>
       <c r="C31" t="n">
-        <v>1379.50555830831</v>
+        <v>1063.275680536421</v>
       </c>
       <c r="D31" t="n">
-        <v>1379.50555830831</v>
+        <v>1063.275680536421</v>
       </c>
       <c r="E31" t="n">
-        <v>1379.50555830831</v>
+        <v>1063.275680536421</v>
       </c>
       <c r="F31" t="n">
-        <v>1379.50555830831</v>
+        <v>1063.275680536421</v>
       </c>
       <c r="G31" t="n">
-        <v>1211.569188613092</v>
+        <v>1063.275680536421</v>
       </c>
       <c r="H31" t="n">
-        <v>1063.275680536422</v>
+        <v>1063.275680536421</v>
       </c>
       <c r="I31" t="n">
-        <v>1063.275680536422</v>
+        <v>1063.275680536421</v>
       </c>
       <c r="J31" t="n">
-        <v>1092.216089620917</v>
+        <v>1092.216089620916</v>
       </c>
       <c r="K31" t="n">
-        <v>1269.610908602712</v>
+        <v>1269.610908602711</v>
       </c>
       <c r="L31" t="n">
-        <v>1552.141636603818</v>
+        <v>1552.141636603817</v>
       </c>
       <c r="M31" t="n">
-        <v>1860.419798644339</v>
+        <v>1860.419798644337</v>
       </c>
       <c r="N31" t="n">
-        <v>2166.802411448961</v>
+        <v>2166.802411448959</v>
       </c>
       <c r="O31" t="n">
-        <v>2433.780048322412</v>
+        <v>2433.78004832241</v>
       </c>
       <c r="P31" t="n">
-        <v>2638.704856250747</v>
+        <v>2638.704856250745</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.818137740232</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>2401.63677465548</v>
+        <v>2501.393362344424</v>
       </c>
       <c r="T31" t="n">
-        <v>2178.872336108004</v>
+        <v>2278.628923796947</v>
       </c>
       <c r="U31" t="n">
-        <v>2178.872336108004</v>
+        <v>1989.51331875514</v>
       </c>
       <c r="V31" t="n">
-        <v>2178.872336108004</v>
+        <v>1734.828830549253</v>
       </c>
       <c r="W31" t="n">
-        <v>2178.872336108004</v>
+        <v>1445.411660512292</v>
       </c>
       <c r="X31" t="n">
-        <v>1950.882785209987</v>
+        <v>1217.422109614275</v>
       </c>
       <c r="Y31" t="n">
-        <v>1730.090206066457</v>
+        <v>1217.422109614275</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1229.027625269121</v>
+        <v>1196.764269441804</v>
       </c>
       <c r="C32" t="n">
-        <v>860.0651083287094</v>
+        <v>827.8017525013927</v>
       </c>
       <c r="D32" t="n">
-        <v>501.7994097219588</v>
+        <v>469.5360538946421</v>
       </c>
       <c r="E32" t="n">
-        <v>116.0111571237145</v>
+        <v>469.5360538946421</v>
       </c>
       <c r="F32" t="n">
-        <v>116.0111571237145</v>
+        <v>469.5360538946421</v>
       </c>
       <c r="G32" t="n">
-        <v>116.0111571237145</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H32" t="n">
-        <v>116.0111571237145</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
         <v>199.5143021373487</v>
       </c>
       <c r="K32" t="n">
-        <v>468.4264940665502</v>
+        <v>468.4264940665501</v>
       </c>
       <c r="L32" t="n">
-        <v>838.9376088552596</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M32" t="n">
         <v>1282.872051350724</v>
       </c>
       <c r="N32" t="n">
-        <v>1738.603625623769</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O32" t="n">
-        <v>2155.602766936377</v>
+        <v>2155.602766936376</v>
       </c>
       <c r="P32" t="n">
-        <v>2477.000885571629</v>
+        <v>2477.000885571628</v>
       </c>
       <c r="Q32" t="n">
-        <v>2670.184741116961</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U32" t="n">
-        <v>2443.576964538518</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V32" t="n">
-        <v>2443.576964538518</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W32" t="n">
-        <v>2090.808309268403</v>
+        <v>2346.969199742818</v>
       </c>
       <c r="X32" t="n">
-        <v>1717.342551007323</v>
+        <v>1973.503441481738</v>
       </c>
       <c r="Y32" t="n">
-        <v>1615.627465333243</v>
+        <v>1583.364109505926</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>165.5050957234327</v>
       </c>
       <c r="H33" t="n">
-        <v>72.31292442990733</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>246.6565409677914</v>
+        <v>246.6565409677913</v>
       </c>
       <c r="K33" t="n">
-        <v>480.760364273334</v>
+        <v>537.8115956207102</v>
       </c>
       <c r="L33" t="n">
-        <v>788.1797623177058</v>
+        <v>845.230993665082</v>
       </c>
       <c r="M33" t="n">
-        <v>1166.280567971507</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.824967998517</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O33" t="n">
-        <v>2179.82927303483</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P33" t="n">
-        <v>2438.195165861565</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q33" t="n">
         <v>2560.986726597623</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>625.6379657403023</v>
+        <v>107.7584576202273</v>
       </c>
       <c r="C34" t="n">
-        <v>456.7017828123954</v>
+        <v>107.7584576202273</v>
       </c>
       <c r="D34" t="n">
-        <v>306.5851434000597</v>
+        <v>107.7584576202273</v>
       </c>
       <c r="E34" t="n">
-        <v>306.5851434000597</v>
+        <v>107.7584576202273</v>
       </c>
       <c r="F34" t="n">
-        <v>306.5851434000597</v>
+        <v>107.7584576202273</v>
       </c>
       <c r="G34" t="n">
-        <v>306.5851434000597</v>
+        <v>107.7584576202273</v>
       </c>
       <c r="H34" t="n">
-        <v>158.2916353233891</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>82.88339090485943</v>
+        <v>82.88339090485938</v>
       </c>
       <c r="K34" t="n">
         <v>260.2782098866545</v>
       </c>
       <c r="L34" t="n">
-        <v>542.8089378877605</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M34" t="n">
-        <v>851.0870999282812</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N34" t="n">
         <v>1157.469712732903</v>
@@ -6877,31 +6877,31 @@
         <v>1629.372157534689</v>
       </c>
       <c r="Q34" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R34" t="n">
-        <v>1687.816392302166</v>
+        <v>1587.485439024174</v>
       </c>
       <c r="S34" t="n">
-        <v>1687.816392302166</v>
+        <v>1391.729710350376</v>
       </c>
       <c r="T34" t="n">
-        <v>1545.48573064905</v>
+        <v>1168.9652718029</v>
       </c>
       <c r="U34" t="n">
-        <v>1545.48573064905</v>
+        <v>879.8496667610921</v>
       </c>
       <c r="V34" t="n">
-        <v>1545.48573064905</v>
+        <v>625.1651785552052</v>
       </c>
       <c r="W34" t="n">
-        <v>1256.068560612089</v>
+        <v>335.7480085182446</v>
       </c>
       <c r="X34" t="n">
-        <v>1028.079009714072</v>
+        <v>107.7584576202273</v>
       </c>
       <c r="Y34" t="n">
-        <v>807.2864305705421</v>
+        <v>107.7584576202273</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1546.94416071721</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>1266.310211282494</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D35" t="n">
-        <v>1266.310211282494</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E35" t="n">
-        <v>880.5219586842497</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F35" t="n">
-        <v>469.5360538946422</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
         <v>199.5143021373487</v>
       </c>
       <c r="K35" t="n">
-        <v>468.4264940665502</v>
+        <v>468.4264940665501</v>
       </c>
       <c r="L35" t="n">
-        <v>838.9376088552596</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M35" t="n">
         <v>1282.872051350724</v>
       </c>
       <c r="N35" t="n">
-        <v>1738.603625623769</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O35" t="n">
         <v>2155.602766936376</v>
@@ -6959,28 +6959,28 @@
         <v>2670.18474111696</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>2323.683332757143</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y35" t="n">
-        <v>1933.544000781332</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>165.5050957234327</v>
       </c>
       <c r="H36" t="n">
-        <v>72.31292442990733</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>246.6565409677914</v>
+        <v>246.6565409677913</v>
       </c>
       <c r="K36" t="n">
-        <v>702.6555516296427</v>
+        <v>537.8115956207102</v>
       </c>
       <c r="L36" t="n">
-        <v>1010.074949674015</v>
+        <v>845.230993665082</v>
       </c>
       <c r="M36" t="n">
-        <v>1388.175755327816</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N36" t="n">
-        <v>1790.69240914896</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O36" t="n">
-        <v>2136.696714185273</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P36" t="n">
-        <v>2395.062607012008</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q36" t="n">
         <v>2560.986726597623</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>520.9088977430002</v>
+        <v>1063.275680536421</v>
       </c>
       <c r="C37" t="n">
-        <v>351.9727148150934</v>
+        <v>1063.275680536421</v>
       </c>
       <c r="D37" t="n">
-        <v>201.8560754027576</v>
+        <v>1063.275680536421</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036447</v>
+        <v>1063.275680536421</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036447</v>
+        <v>1063.275680536421</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036447</v>
+        <v>1063.275680536421</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036447</v>
+        <v>1063.275680536421</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036447</v>
+        <v>1063.275680536421</v>
       </c>
       <c r="J37" t="n">
-        <v>82.88339090485943</v>
+        <v>1092.216089620916</v>
       </c>
       <c r="K37" t="n">
-        <v>260.2782098866545</v>
+        <v>1269.610908602711</v>
       </c>
       <c r="L37" t="n">
-        <v>542.8089378877605</v>
+        <v>1552.141636603817</v>
       </c>
       <c r="M37" t="n">
-        <v>851.0870999282812</v>
+        <v>1860.419798644337</v>
       </c>
       <c r="N37" t="n">
-        <v>1157.469712732903</v>
+        <v>2166.802411448959</v>
       </c>
       <c r="O37" t="n">
-        <v>1424.447349606354</v>
+        <v>2433.78004832241</v>
       </c>
       <c r="P37" t="n">
-        <v>1629.372157534689</v>
+        <v>2638.704856250745</v>
       </c>
       <c r="Q37" t="n">
-        <v>1687.816392302166</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R37" t="n">
-        <v>1587.485439024175</v>
+        <v>2596.818137740231</v>
       </c>
       <c r="S37" t="n">
-        <v>1391.729710350377</v>
+        <v>2401.062409066433</v>
       </c>
       <c r="T37" t="n">
-        <v>1285.501570134225</v>
+        <v>2178.297970518956</v>
       </c>
       <c r="U37" t="n">
-        <v>996.3859650924172</v>
+        <v>2056.159468820816</v>
       </c>
       <c r="V37" t="n">
-        <v>741.7014768865304</v>
+        <v>1801.474980614929</v>
       </c>
       <c r="W37" t="n">
-        <v>741.7014768865304</v>
+        <v>1512.057810577968</v>
       </c>
       <c r="X37" t="n">
-        <v>741.7014768865304</v>
+        <v>1284.068259679951</v>
       </c>
       <c r="Y37" t="n">
-        <v>520.9088977430002</v>
+        <v>1063.275680536421</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1920.40991897829</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C38" t="n">
-        <v>1551.447402037878</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D38" t="n">
-        <v>1266.310211282494</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E38" t="n">
-        <v>880.5219586842497</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F38" t="n">
-        <v>469.5360538946422</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
         <v>199.5143021373487</v>
       </c>
       <c r="K38" t="n">
-        <v>468.4264940665502</v>
+        <v>468.4264940665501</v>
       </c>
       <c r="L38" t="n">
-        <v>838.9376088552596</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M38" t="n">
         <v>1282.872051350724</v>
       </c>
       <c r="N38" t="n">
-        <v>1738.603625623769</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O38" t="n">
         <v>2155.602766936376</v>
@@ -7193,31 +7193,31 @@
         <v>2477.000885571628</v>
       </c>
       <c r="Q38" t="n">
-        <v>2670.184741116961</v>
+        <v>2670.18474111696</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018223</v>
+        <v>2615.207670282225</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018223</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018223</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X38" t="n">
-        <v>2697.149091018223</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y38" t="n">
-        <v>2307.009759042412</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>165.5050957234327</v>
       </c>
       <c r="H39" t="n">
-        <v>72.31292442990733</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>246.6565409677914</v>
+        <v>246.6565409677913</v>
       </c>
       <c r="K39" t="n">
-        <v>480.760364273334</v>
+        <v>537.8115956207102</v>
       </c>
       <c r="L39" t="n">
-        <v>788.1797623177058</v>
+        <v>845.230993665082</v>
       </c>
       <c r="M39" t="n">
-        <v>1166.280567971507</v>
+        <v>1223.331799318883</v>
       </c>
       <c r="N39" t="n">
-        <v>1833.824967998517</v>
+        <v>1625.848453140027</v>
       </c>
       <c r="O39" t="n">
-        <v>2179.82927303483</v>
+        <v>1971.85275817634</v>
       </c>
       <c r="P39" t="n">
-        <v>2438.195165861565</v>
+        <v>2230.218651003075</v>
       </c>
       <c r="Q39" t="n">
         <v>2560.986726597623</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>94.76397196625638</v>
+        <v>1030.690860122509</v>
       </c>
       <c r="C40" t="n">
-        <v>94.76397196625638</v>
+        <v>861.7546771946018</v>
       </c>
       <c r="D40" t="n">
-        <v>94.76397196625638</v>
+        <v>711.638037782266</v>
       </c>
       <c r="E40" t="n">
-        <v>94.76397196625638</v>
+        <v>563.7249441998729</v>
       </c>
       <c r="F40" t="n">
-        <v>94.76397196625638</v>
+        <v>416.8349967019625</v>
       </c>
       <c r="G40" t="n">
-        <v>94.76397196625638</v>
+        <v>306.5851434000597</v>
       </c>
       <c r="H40" t="n">
-        <v>94.76397196625638</v>
+        <v>158.2916353233891</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>82.88339090485943</v>
+        <v>82.88339090485938</v>
       </c>
       <c r="K40" t="n">
         <v>260.2782098866545</v>
       </c>
       <c r="L40" t="n">
-        <v>542.8089378877605</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M40" t="n">
-        <v>851.0870999282812</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N40" t="n">
         <v>1157.469712732903</v>
@@ -7351,31 +7351,31 @@
         <v>1629.372157534689</v>
       </c>
       <c r="Q40" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R40" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S40" t="n">
-        <v>1492.060663628367</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="T40" t="n">
-        <v>1269.296225080891</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="U40" t="n">
-        <v>1269.296225080891</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="V40" t="n">
-        <v>1014.611736875004</v>
+        <v>1433.131904096278</v>
       </c>
       <c r="W40" t="n">
-        <v>725.1945668380436</v>
+        <v>1433.131904096278</v>
       </c>
       <c r="X40" t="n">
-        <v>497.2050159400262</v>
+        <v>1433.131904096278</v>
       </c>
       <c r="Y40" t="n">
-        <v>276.4124367964961</v>
+        <v>1212.339324952748</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1126.110004838722</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C41" t="n">
-        <v>1126.110004838722</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D41" t="n">
-        <v>767.8443062319718</v>
+        <v>819.7159451700466</v>
       </c>
       <c r="E41" t="n">
-        <v>767.8443062319718</v>
+        <v>433.9276925718023</v>
       </c>
       <c r="F41" t="n">
-        <v>356.8584014423643</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="G41" t="n">
-        <v>356.8584014423643</v>
+        <v>356.8584014423642</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
         <v>199.5143021373487</v>
       </c>
       <c r="K41" t="n">
-        <v>468.4264940665502</v>
+        <v>468.4264940665501</v>
       </c>
       <c r="L41" t="n">
-        <v>838.9376088552596</v>
+        <v>838.9376088552594</v>
       </c>
       <c r="M41" t="n">
         <v>1282.872051350724</v>
       </c>
       <c r="N41" t="n">
-        <v>1738.603625623769</v>
+        <v>1738.603625623768</v>
       </c>
       <c r="O41" t="n">
-        <v>2155.602766936376</v>
+        <v>2155.602766936375</v>
       </c>
       <c r="P41" t="n">
-        <v>2477.000885571628</v>
+        <v>2477.000885571627</v>
       </c>
       <c r="Q41" t="n">
-        <v>2670.184741116961</v>
+        <v>2670.184741116959</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2586.680719492341</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2586.680719492341</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2586.680719492341</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2255.61783214877</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>1902.849176878656</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>1902.849176878656</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y41" t="n">
-        <v>1512.709844902844</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="42">
@@ -7482,19 +7482,19 @@
         <v>165.5050957234327</v>
       </c>
       <c r="H42" t="n">
-        <v>72.31292442990733</v>
+        <v>72.3129244299073</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>246.6565409677914</v>
+        <v>246.6565409677913</v>
       </c>
       <c r="K42" t="n">
-        <v>537.8115956207098</v>
+        <v>537.8115956207102</v>
       </c>
       <c r="L42" t="n">
-        <v>845.2309936650815</v>
+        <v>845.230993665082</v>
       </c>
       <c r="M42" t="n">
         <v>1223.331799318883</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>793.5743354355201</v>
+        <v>996.2597432865879</v>
       </c>
       <c r="C43" t="n">
-        <v>624.6381525076132</v>
+        <v>827.323560358681</v>
       </c>
       <c r="D43" t="n">
-        <v>474.5215130952774</v>
+        <v>677.2069209463452</v>
       </c>
       <c r="E43" t="n">
-        <v>474.5215130952774</v>
+        <v>529.2938273639521</v>
       </c>
       <c r="F43" t="n">
-        <v>474.5215130952774</v>
+        <v>382.4038798660417</v>
       </c>
       <c r="G43" t="n">
-        <v>306.5851434000597</v>
+        <v>214.467510170824</v>
       </c>
       <c r="H43" t="n">
-        <v>158.2916353233891</v>
+        <v>66.17400209415339</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>82.88339090485943</v>
+        <v>82.88339090485938</v>
       </c>
       <c r="K43" t="n">
         <v>260.2782098866545</v>
       </c>
       <c r="L43" t="n">
-        <v>542.8089378877605</v>
+        <v>542.8089378877603</v>
       </c>
       <c r="M43" t="n">
-        <v>851.0870999282812</v>
+        <v>851.0870999282808</v>
       </c>
       <c r="N43" t="n">
         <v>1157.469712732903</v>
@@ -7588,31 +7588,31 @@
         <v>1629.372157534689</v>
       </c>
       <c r="Q43" t="n">
-        <v>1687.816392302166</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="R43" t="n">
-        <v>1587.485439024175</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="S43" t="n">
-        <v>1587.485439024175</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="T43" t="n">
-        <v>1364.721000476698</v>
+        <v>1687.816392302165</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.605395434891</v>
+        <v>1398.700787260358</v>
       </c>
       <c r="V43" t="n">
-        <v>820.920907229004</v>
+        <v>1398.700787260358</v>
       </c>
       <c r="W43" t="n">
-        <v>820.920907229004</v>
+        <v>1398.700787260358</v>
       </c>
       <c r="X43" t="n">
-        <v>793.5743354355201</v>
+        <v>1398.700787260358</v>
       </c>
       <c r="Y43" t="n">
-        <v>793.5743354355201</v>
+        <v>1177.908208116828</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1256.053620981469</v>
+        <v>1408.002972532924</v>
       </c>
       <c r="C44" t="n">
-        <v>887.091104041057</v>
+        <v>1408.002972532924</v>
       </c>
       <c r="D44" t="n">
-        <v>528.8254054343065</v>
+        <v>1049.737273926173</v>
       </c>
       <c r="E44" t="n">
-        <v>528.8254054343065</v>
+        <v>663.9490213279291</v>
       </c>
       <c r="F44" t="n">
-        <v>528.8254054343065</v>
+        <v>663.9490213279291</v>
       </c>
       <c r="G44" t="n">
-        <v>113.2323333600288</v>
+        <v>354.0795776786785</v>
       </c>
       <c r="H44" t="n">
-        <v>113.2323333600288</v>
+        <v>51.16415805667874</v>
       </c>
       <c r="I44" t="n">
         <v>51.16415805667874</v>
@@ -7649,13 +7649,13 @@
         <v>196.735478373663</v>
       </c>
       <c r="K44" t="n">
-        <v>329.4853058822646</v>
+        <v>465.6476703028644</v>
       </c>
       <c r="L44" t="n">
-        <v>699.996420670974</v>
+        <v>699.9964206709742</v>
       </c>
       <c r="M44" t="n">
-        <v>1143.930863166438</v>
+        <v>1143.930863166439</v>
       </c>
       <c r="N44" t="n">
         <v>1599.662437439483</v>
@@ -7673,25 +7673,25 @@
         <v>2558.207902833937</v>
       </c>
       <c r="S44" t="n">
-        <v>2436.053562375571</v>
+        <v>2558.207902833937</v>
       </c>
       <c r="T44" t="n">
-        <v>2436.053562375571</v>
+        <v>2558.207902833937</v>
       </c>
       <c r="U44" t="n">
-        <v>2182.481435895866</v>
+        <v>2558.207902833937</v>
       </c>
       <c r="V44" t="n">
-        <v>1851.418548552295</v>
+        <v>2558.207902833937</v>
       </c>
       <c r="W44" t="n">
-        <v>1498.649893282181</v>
+        <v>2558.207902833937</v>
       </c>
       <c r="X44" t="n">
-        <v>1498.649893282181</v>
+        <v>2184.742144572857</v>
       </c>
       <c r="Y44" t="n">
-        <v>1256.053620981469</v>
+        <v>1794.602812597046</v>
       </c>
     </row>
     <row r="45">
@@ -7725,22 +7725,22 @@
         <v>51.16415805667874</v>
       </c>
       <c r="J45" t="n">
-        <v>119.0475922171009</v>
+        <v>243.8777172041056</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7311457619771</v>
+        <v>699.8767278659568</v>
       </c>
       <c r="L45" t="n">
-        <v>735.1505438063489</v>
+        <v>1050.428684759887</v>
       </c>
       <c r="M45" t="n">
-        <v>1113.25134946015</v>
+        <v>1428.529490413688</v>
       </c>
       <c r="N45" t="n">
-        <v>1515.768003281294</v>
+        <v>1831.046144234832</v>
       </c>
       <c r="O45" t="n">
-        <v>1861.772308317607</v>
+        <v>2177.050449271145</v>
       </c>
       <c r="P45" t="n">
         <v>2435.41634209788</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>288.0424418715221</v>
+        <v>205.3105871345326</v>
       </c>
       <c r="C46" t="n">
-        <v>119.1062589436152</v>
+        <v>205.3105871345326</v>
       </c>
       <c r="D46" t="n">
-        <v>119.1062589436152</v>
+        <v>205.3105871345326</v>
       </c>
       <c r="E46" t="n">
-        <v>119.1062589436152</v>
+        <v>205.3105871345326</v>
       </c>
       <c r="F46" t="n">
-        <v>119.1062589436152</v>
+        <v>58.42063963662221</v>
       </c>
       <c r="G46" t="n">
-        <v>119.1062589436152</v>
+        <v>58.42063963662221</v>
       </c>
       <c r="H46" t="n">
         <v>51.16415805667874</v>
@@ -7804,22 +7804,22 @@
         <v>51.16415805667874</v>
       </c>
       <c r="J46" t="n">
-        <v>80.1045671411737</v>
+        <v>80.10456714117369</v>
       </c>
       <c r="K46" t="n">
         <v>257.4993861229688</v>
       </c>
       <c r="L46" t="n">
-        <v>540.0301141240748</v>
+        <v>540.0301141240745</v>
       </c>
       <c r="M46" t="n">
-        <v>848.3082761645954</v>
+        <v>848.3082761645951</v>
       </c>
       <c r="N46" t="n">
-        <v>1154.690888969218</v>
+        <v>1154.690888969217</v>
       </c>
       <c r="O46" t="n">
-        <v>1421.668525842669</v>
+        <v>1421.668525842668</v>
       </c>
       <c r="P46" t="n">
         <v>1626.593333771003</v>
@@ -7831,25 +7831,25 @@
         <v>1685.03756853848</v>
       </c>
       <c r="S46" t="n">
-        <v>1685.03756853848</v>
+        <v>1489.281839864681</v>
       </c>
       <c r="T46" t="n">
-        <v>1462.273129991004</v>
+        <v>1266.517401317205</v>
       </c>
       <c r="U46" t="n">
-        <v>1173.157524949196</v>
+        <v>977.4017962753974</v>
       </c>
       <c r="V46" t="n">
-        <v>918.4730367433093</v>
+        <v>722.7173080695105</v>
       </c>
       <c r="W46" t="n">
-        <v>918.4730367433093</v>
+        <v>433.3001380325499</v>
       </c>
       <c r="X46" t="n">
-        <v>690.483485845292</v>
+        <v>205.3105871345326</v>
       </c>
       <c r="Y46" t="n">
-        <v>469.6909067017618</v>
+        <v>205.3105871345326</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>130.9032309267716</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8471,7 +8471,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>97.03931925844932</v>
       </c>
       <c r="P9" t="n">
-        <v>85.5669700040564</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>97.9561905389096</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>324.7879747380777</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>109.3365388770891</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>17.26494649393206</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>97.95619053890886</v>
+        <v>97.9561905389096</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>17.26494649393206</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,13 +9249,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>115.6617449752301</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>115.6617449752293</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>17.26494649393206</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>137.53774183899</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>137.5377418389888</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>97.95619053890982</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>97.95619053890908</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>17.26494649393206</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>97.95619053890988</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>97.95619053890931</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>17.26494649393206</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>97.9561905389096</v>
       </c>
       <c r="L27" t="n">
-        <v>115.6617449752297</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>17.26494649393206</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>97.9561905389096</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>97.95619053890886</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>17.26494649393206</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>40.32868412741828</v>
+        <v>97.9561905389096</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>267.7047941473396</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>17.26494649393206</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>97.9561905389096</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,10 +10683,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>43.56824126217938</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>17.26494649393206</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>40.32868412741828</v>
+        <v>97.9561905389096</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>267.7047941473396</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>17.26494649393206</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>97.95619053890897</v>
+        <v>97.9561905389096</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>17.26494649393206</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>115.66174497523</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>43.56824126218009</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>17.26494649393206</v>
+        <v>17.26494649393209</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>18.66551994330462</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22592,25 +22592,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>180.9450460940301</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,13 +22711,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>83.08841053406435</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22726,7 +22726,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22781,7 +22781,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22790,19 +22790,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>86.81445950488506</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>58.23741346252899</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22844,7 +22844,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22939,25 +22939,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>43.70334145380504</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>118.3328055020462</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -23008,7 +23008,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23018,25 +23018,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>73.87698536525534</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>197.7186294938941</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -23075,13 +23075,13 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23176,10 +23176,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23191,13 +23191,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>18.62755109112871</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -23227,25 +23227,25 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>203.1737490255823</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>29.43451656871099</v>
+        <v>45.46643962230559</v>
       </c>
       <c r="H11" t="n">
         <v>299.8862654257798</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>25.34965096168168</v>
       </c>
       <c r="I13" t="n">
-        <v>30.68166329459041</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>99.32764374521085</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S13" t="n">
         <v>193.7981713870603</v>
@@ -23476,7 +23476,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>87.44528183063954</v>
+        <v>22.67732007818819</v>
       </c>
       <c r="H14" t="n">
         <v>299.8862654257798</v>
@@ -23552,7 +23552,7 @@
         <v>251.0364052149085</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>30.68166329459085</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>30.68166329459041</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>99.32764374521085</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S16" t="n">
         <v>193.7981713870603</v>
@@ -23732,22 +23732,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>29.43451656871099</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>299.8862654257798</v>
+        <v>298.1415731967503</v>
       </c>
       <c r="I17" t="n">
         <v>61.44749355031655</v>
@@ -23789,16 +23789,16 @@
         <v>251.0364052149085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23896,13 +23896,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>73.88592543168451</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>98.09782303782464</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>220.5367941620016</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2244489913895</v>
@@ -24029,7 +24029,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>274.6381813200795</v>
+        <v>274.6381813200809</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.2570059982656</v>
       </c>
       <c r="H22" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>103.3051669679944</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>99.32764374521085</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.2603184585239</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>262.983774202497</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.2570059982656</v>
+        <v>67.08892166728347</v>
       </c>
       <c r="H25" t="n">
         <v>146.8105729959039</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>99.32764374521085</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S25" t="n">
-        <v>65.97968856501919</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24452,13 +24452,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>411.4371413535349</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I26" t="n">
         <v>61.44749355031655</v>
@@ -24500,13 +24500,13 @@
         <v>251.0364052149085</v>
       </c>
       <c r="V26" t="n">
-        <v>217.9607873059227</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>30.69118209778793</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>1.10271749269441</v>
       </c>
       <c r="G28" t="n">
-        <v>166.2570059982656</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>146.8105729959039</v>
@@ -24646,22 +24646,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>99.32764374521085</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S28" t="n">
         <v>193.7981713870603</v>
       </c>
       <c r="T28" t="n">
-        <v>39.42833827658689</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2244489913895</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>272.9423704992683</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24689,13 +24689,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>411.4371413535349</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>299.8862654257798</v>
       </c>
       <c r="I29" t="n">
         <v>61.44749355031655</v>
@@ -24740,10 +24740,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>30.69118209778793</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>27.22701539486184</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.2570059982656</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>146.8105729959039</v>
       </c>
       <c r="I31" t="n">
         <v>103.3051669679944</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S31" t="n">
-        <v>0.568621933155498</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2244489913895</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24923,19 +24923,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.4371413535349</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>299.8862654257798</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,19 +24971,19 @@
         <v>206.1742023667267</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>330.3151348248978</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>285.5400038387137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>166.2570059982656</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>93.53325195403968</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>103.3051669679944</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25120,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>99.32764374521085</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>79.62943912541712</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2244489913895</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,10 +25154,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>87.44528183063875</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>30.69118209778793</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H35" t="n">
         <v>299.8862654257798</v>
@@ -25312,13 +25312,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25363,19 +25363,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>115.3709353480113</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>165.3073323102301</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25394,16 +25394,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>72.39722277285267</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.4371413535349</v>
       </c>
       <c r="H38" t="n">
         <v>299.8862654257798</v>
@@ -25445,16 +25445,16 @@
         <v>206.1742023667267</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0364052149085</v>
+        <v>169.9143986862716</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.2570059982656</v>
+        <v>57.1096512293818</v>
       </c>
       <c r="H40" t="n">
-        <v>146.8105729959039</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.89238672356139</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>99.32764374521085</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>193.7981713870603</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U40" t="n">
         <v>286.2244489913895</v>
@@ -25609,10 +25609,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25628,16 +25628,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>330.5774475235677</v>
       </c>
       <c r="G41" t="n">
         <v>411.4371413535349</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.56910924315849</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T41" t="n">
         <v>206.1742023667267</v>
@@ -25685,13 +25685,13 @@
         <v>251.0364052149085</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>91.19645689694332</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S43" t="n">
         <v>193.7981713870603</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>220.5367941620016</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>198.6365493134881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25862,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>104.6663921407768</v>
       </c>
       <c r="H44" t="n">
-        <v>299.8862654257798</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>61.44749355031655</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25913,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>120.9327970537822</v>
       </c>
       <c r="T44" t="n">
         <v>206.1742023667267</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0364052149085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>146.0676290783486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.2570059982656</v>
       </c>
       <c r="H46" t="n">
-        <v>79.54789311783679</v>
+        <v>139.6266562317598</v>
       </c>
       <c r="I46" t="n">
         <v>103.3051669679944</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>99.32764374521085</v>
+        <v>99.32764374521086</v>
       </c>
       <c r="S46" t="n">
-        <v>193.7981713870603</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>779287.1708210206</v>
+        <v>779287.1708210205</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>779287.1708210206</v>
+        <v>779287.1708210207</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>781089.6277242678</v>
+        <v>781089.6277242679</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>788914.0859387433</v>
+        <v>788914.0859387432</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>773580.0648555604</v>
+        <v>773580.0648555603</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>773580.0648555607</v>
+        <v>773580.0648555602</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>773580.0648555605</v>
+        <v>773580.0648555603</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>773580.0648555605</v>
+        <v>773580.0648555603</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>773580.0648555603</v>
+        <v>773580.0648555602</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>773580.0648555605</v>
+        <v>773580.0648555603</v>
       </c>
     </row>
     <row r="16">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>303610.2405165456</v>
+      </c>
+      <c r="C2" t="n">
         <v>303610.2405165454</v>
       </c>
-      <c r="C2" t="n">
-        <v>303610.2405165455</v>
-      </c>
       <c r="D2" t="n">
-        <v>313978.8245375894</v>
+        <v>313978.8245375892</v>
       </c>
       <c r="E2" t="n">
         <v>327765.7989333927</v>
       </c>
       <c r="F2" t="n">
-        <v>327765.7989333929</v>
+        <v>327765.7989333926</v>
       </c>
       <c r="G2" t="n">
         <v>327765.7989333927</v>
       </c>
       <c r="H2" t="n">
-        <v>333399.1218904382</v>
+        <v>333399.1218904381</v>
       </c>
       <c r="I2" t="n">
         <v>413794.6392019163</v>
@@ -26338,22 +26338,22 @@
         <v>327765.7989333927</v>
       </c>
       <c r="K2" t="n">
-        <v>327765.7989333927</v>
+        <v>327765.7989333926</v>
       </c>
       <c r="L2" t="n">
         <v>327765.7989333927</v>
       </c>
       <c r="M2" t="n">
-        <v>327765.7989333928</v>
+        <v>327765.7989333927</v>
       </c>
       <c r="N2" t="n">
-        <v>327765.7989333927</v>
+        <v>327765.7989333925</v>
       </c>
       <c r="O2" t="n">
-        <v>327765.7989333927</v>
+        <v>327765.7989333926</v>
       </c>
       <c r="P2" t="n">
-        <v>322132.4759763473</v>
+        <v>322132.4759763472</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>9371.895760703515</v>
+        <v>9371.895760703424</v>
       </c>
       <c r="I3" t="n">
         <v>131822.8924201652</v>
       </c>
       <c r="J3" t="n">
-        <v>37632.24774564195</v>
+        <v>37632.24774564186</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69280.52355892843</v>
+        <v>71376.38478147394</v>
       </c>
       <c r="C4" t="n">
-        <v>69280.52355892843</v>
+        <v>71376.38478147393</v>
       </c>
       <c r="D4" t="n">
-        <v>47559.7895538599</v>
+        <v>48993.41451395674</v>
       </c>
       <c r="E4" t="n">
-        <v>9072.390684793794</v>
+        <v>9332.459500253124</v>
       </c>
       <c r="F4" t="n">
-        <v>9072.390684793794</v>
+        <v>9332.459500253124</v>
       </c>
       <c r="G4" t="n">
-        <v>9072.390684793791</v>
+        <v>9332.459500253122</v>
       </c>
       <c r="H4" t="n">
-        <v>11213.65362955023</v>
+        <v>11538.4823567054</v>
       </c>
       <c r="I4" t="n">
-        <v>41772.51621496081</v>
+        <v>43021.56083414519</v>
       </c>
       <c r="J4" t="n">
-        <v>9072.390684793796</v>
+        <v>9332.459500253124</v>
       </c>
       <c r="K4" t="n">
-        <v>9072.390684793794</v>
+        <v>9332.459500253124</v>
       </c>
       <c r="L4" t="n">
-        <v>9072.390684793794</v>
+        <v>9332.459500253124</v>
       </c>
       <c r="M4" t="n">
-        <v>9072.390684793794</v>
+        <v>9332.459500253124</v>
       </c>
       <c r="N4" t="n">
-        <v>9072.390684793794</v>
+        <v>9332.459500253124</v>
       </c>
       <c r="O4" t="n">
-        <v>9072.390684793794</v>
+        <v>9332.459500253124</v>
       </c>
       <c r="P4" t="n">
-        <v>9055.968678418223</v>
+        <v>9316.037493877549</v>
       </c>
     </row>
     <row r="5">
@@ -26485,28 +26485,28 @@
         <v>61958.82776879413</v>
       </c>
       <c r="H5" t="n">
-        <v>64070.73382919528</v>
+        <v>64070.73382919526</v>
       </c>
       <c r="I5" t="n">
         <v>94210.63199122853</v>
       </c>
       <c r="J5" t="n">
-        <v>61958.82776879414</v>
+        <v>61958.82776879412</v>
       </c>
       <c r="K5" t="n">
-        <v>61958.82776879414</v>
+        <v>61958.82776879412</v>
       </c>
       <c r="L5" t="n">
-        <v>61958.82776879414</v>
+        <v>61958.82776879412</v>
       </c>
       <c r="M5" t="n">
-        <v>61958.82776879414</v>
+        <v>61958.82776879412</v>
       </c>
       <c r="N5" t="n">
-        <v>61958.82776879414</v>
+        <v>61958.82776879412</v>
       </c>
       <c r="O5" t="n">
-        <v>61958.82776879414</v>
+        <v>61958.82776879412</v>
       </c>
       <c r="P5" t="n">
         <v>59846.921708393</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-438497.2403203369</v>
+        <v>-440593.1015428823</v>
       </c>
       <c r="C6" t="n">
-        <v>151470.6388942076</v>
+        <v>149374.777671662</v>
       </c>
       <c r="D6" t="n">
-        <v>-5899.288735228853</v>
+        <v>-7332.913695325973</v>
       </c>
       <c r="E6" t="n">
-        <v>-38990.78889352917</v>
+        <v>-39250.85770898836</v>
       </c>
       <c r="F6" t="n">
-        <v>256734.5804798049</v>
+        <v>256474.5116643453</v>
       </c>
       <c r="G6" t="n">
-        <v>256734.5804798048</v>
+        <v>256474.5116643454</v>
       </c>
       <c r="H6" t="n">
-        <v>248742.8386709891</v>
+        <v>248418.009943834</v>
       </c>
       <c r="I6" t="n">
-        <v>145988.5985755618</v>
+        <v>144739.5539563773</v>
       </c>
       <c r="J6" t="n">
-        <v>219102.3327341627</v>
+        <v>218842.2639187036</v>
       </c>
       <c r="K6" t="n">
-        <v>256734.5804798048</v>
+        <v>256474.5116643454</v>
       </c>
       <c r="L6" t="n">
-        <v>256734.5804798048</v>
+        <v>256474.5116643455</v>
       </c>
       <c r="M6" t="n">
-        <v>256734.5804798048</v>
+        <v>256474.5116643455</v>
       </c>
       <c r="N6" t="n">
-        <v>256734.5804798048</v>
+        <v>256474.5116643453</v>
       </c>
       <c r="O6" t="n">
-        <v>256734.5804798048</v>
+        <v>256474.5116643454</v>
       </c>
       <c r="P6" t="n">
-        <v>253229.5855895361</v>
+        <v>252969.5167740767</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26744,40 @@
         <v>593.4761003380651</v>
       </c>
       <c r="E3" t="n">
-        <v>961.5670451980344</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="F3" t="n">
-        <v>961.5670451980344</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="G3" t="n">
-        <v>961.5670451980344</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="H3" t="n">
-        <v>961.5670451980344</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="I3" t="n">
-        <v>961.5670451980344</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="J3" t="n">
-        <v>961.5670451980344</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="K3" t="n">
-        <v>961.5670451980344</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="L3" t="n">
-        <v>961.5670451980344</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="M3" t="n">
-        <v>961.5670451980344</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="N3" t="n">
-        <v>961.5670451980344</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="O3" t="n">
-        <v>961.5670451980344</v>
+        <v>961.5670451980343</v>
       </c>
       <c r="P3" t="n">
-        <v>961.5670451980344</v>
+        <v>961.5670451980343</v>
       </c>
     </row>
     <row r="4">
@@ -26805,28 +26805,28 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>709.0225698006271</v>
+        <v>709.0225698006268</v>
       </c>
       <c r="I4" t="n">
         <v>1204.744579044595</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
         <v>639.5519757084843</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>368.0909448599693</v>
+        <v>368.0909448599692</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>34.73529704607154</v>
+        <v>34.7352970460712</v>
       </c>
       <c r="I4" t="n">
-        <v>495.7220092439678</v>
+        <v>495.7220092439682</v>
       </c>
       <c r="J4" t="n">
-        <v>143.8299664645165</v>
+        <v>143.8299664645161</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>34.73529704607154</v>
+        <v>34.7352970460712</v>
       </c>
     </row>
   </sheetData>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.865596161600136</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H11" t="n">
-        <v>39.5885366899874</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I11" t="n">
         <v>149.0283960200894</v>
@@ -31768,13 +31768,13 @@
         <v>610.0200662717139</v>
       </c>
       <c r="M11" t="n">
-        <v>678.7648620105703</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N11" t="n">
         <v>689.7479871047167</v>
       </c>
       <c r="O11" t="n">
-        <v>651.3094652728054</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P11" t="n">
         <v>555.8775600333018</v>
@@ -31786,7 +31786,7 @@
         <v>242.8222548861147</v>
       </c>
       <c r="S11" t="n">
-        <v>88.08727253246317</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T11" t="n">
         <v>16.9216471974046</v>
@@ -31841,19 +31841,19 @@
         <v>195.4067520812345</v>
       </c>
       <c r="K12" t="n">
-        <v>333.9812632363777</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L12" t="n">
         <v>449.0790242691386</v>
       </c>
       <c r="M12" t="n">
-        <v>524.0540396329287</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N12" t="n">
-        <v>537.9241906905495</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O12" t="n">
-        <v>492.0955424609224</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P12" t="n">
         <v>394.9500567342644</v>
@@ -31865,10 +31865,10 @@
         <v>128.4145574700319</v>
       </c>
       <c r="S12" t="n">
-        <v>38.41732487182711</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T12" t="n">
-        <v>8.336604854122578</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U12" t="n">
         <v>0.1360708082827408</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.733973360193177</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H13" t="n">
         <v>15.41659951153571</v>
       </c>
       <c r="I13" t="n">
-        <v>52.14530795926391</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J13" t="n">
         <v>122.5919165656576</v>
@@ -31923,7 +31923,7 @@
         <v>201.4561776660799</v>
       </c>
       <c r="L13" t="n">
-        <v>257.7945484781747</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M13" t="n">
         <v>271.8082059073722</v>
@@ -31941,13 +31941,13 @@
         <v>145.1966238249032</v>
       </c>
       <c r="R13" t="n">
-        <v>77.96574763195864</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S13" t="n">
-        <v>30.21842664991199</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T13" t="n">
-        <v>7.408795266279935</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U13" t="n">
         <v>0.0945803651014461</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.865596161600136</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H14" t="n">
-        <v>39.5885366899874</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I14" t="n">
         <v>149.0283960200894</v>
@@ -32005,13 +32005,13 @@
         <v>610.0200662717139</v>
       </c>
       <c r="M14" t="n">
-        <v>678.7648620105703</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N14" t="n">
         <v>689.7479871047167</v>
       </c>
       <c r="O14" t="n">
-        <v>651.3094652728054</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P14" t="n">
         <v>555.8775600333018</v>
@@ -32023,7 +32023,7 @@
         <v>242.8222548861147</v>
       </c>
       <c r="S14" t="n">
-        <v>88.08727253246317</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T14" t="n">
         <v>16.9216471974046</v>
@@ -32078,19 +32078,19 @@
         <v>195.4067520812345</v>
       </c>
       <c r="K15" t="n">
-        <v>333.9812632363777</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L15" t="n">
         <v>449.0790242691386</v>
       </c>
       <c r="M15" t="n">
-        <v>524.0540396329287</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N15" t="n">
-        <v>537.9241906905495</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O15" t="n">
-        <v>492.0955424609224</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P15" t="n">
         <v>394.9500567342644</v>
@@ -32102,10 +32102,10 @@
         <v>128.4145574700319</v>
       </c>
       <c r="S15" t="n">
-        <v>38.41732487182711</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T15" t="n">
-        <v>8.336604854122578</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U15" t="n">
         <v>0.1360708082827408</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.733973360193177</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H16" t="n">
         <v>15.41659951153571</v>
       </c>
       <c r="I16" t="n">
-        <v>52.14530795926391</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J16" t="n">
         <v>122.5919165656576</v>
@@ -32160,7 +32160,7 @@
         <v>201.4561776660799</v>
       </c>
       <c r="L16" t="n">
-        <v>257.7945484781747</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M16" t="n">
         <v>271.8082059073722</v>
@@ -32178,13 +32178,13 @@
         <v>145.1966238249032</v>
       </c>
       <c r="R16" t="n">
-        <v>77.96574763195864</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S16" t="n">
-        <v>30.21842664991199</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T16" t="n">
-        <v>7.408795266279935</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U16" t="n">
         <v>0.0945803651014461</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.865596161600136</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H17" t="n">
-        <v>39.5885366899874</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I17" t="n">
         <v>149.0283960200894</v>
@@ -32242,13 +32242,13 @@
         <v>610.0200662717139</v>
       </c>
       <c r="M17" t="n">
-        <v>678.7648620105703</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N17" t="n">
         <v>689.7479871047167</v>
       </c>
       <c r="O17" t="n">
-        <v>651.3094652728054</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P17" t="n">
         <v>555.8775600333018</v>
@@ -32260,7 +32260,7 @@
         <v>242.8222548861147</v>
       </c>
       <c r="S17" t="n">
-        <v>88.08727253246317</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T17" t="n">
         <v>16.9216471974046</v>
@@ -32315,19 +32315,19 @@
         <v>195.4067520812345</v>
       </c>
       <c r="K18" t="n">
-        <v>333.9812632363777</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L18" t="n">
         <v>449.0790242691386</v>
       </c>
       <c r="M18" t="n">
-        <v>524.0540396329287</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N18" t="n">
-        <v>537.9241906905495</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O18" t="n">
-        <v>492.0955424609224</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P18" t="n">
         <v>394.9500567342644</v>
@@ -32339,10 +32339,10 @@
         <v>128.4145574700319</v>
       </c>
       <c r="S18" t="n">
-        <v>38.41732487182711</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T18" t="n">
-        <v>8.336604854122578</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U18" t="n">
         <v>0.1360708082827408</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.733973360193177</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H19" t="n">
         <v>15.41659951153571</v>
       </c>
       <c r="I19" t="n">
-        <v>52.14530795926391</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J19" t="n">
         <v>122.5919165656576</v>
@@ -32397,7 +32397,7 @@
         <v>201.4561776660799</v>
       </c>
       <c r="L19" t="n">
-        <v>257.7945484781747</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M19" t="n">
         <v>271.8082059073722</v>
@@ -32415,13 +32415,13 @@
         <v>145.1966238249032</v>
       </c>
       <c r="R19" t="n">
-        <v>77.96574763195864</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S19" t="n">
-        <v>30.21842664991199</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T19" t="n">
-        <v>7.408795266279935</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U19" t="n">
         <v>0.0945803651014461</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.865596161600136</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H20" t="n">
-        <v>39.5885366899874</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I20" t="n">
         <v>149.0283960200894</v>
@@ -32479,13 +32479,13 @@
         <v>610.0200662717139</v>
       </c>
       <c r="M20" t="n">
-        <v>678.7648620105703</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N20" t="n">
         <v>689.7479871047167</v>
       </c>
       <c r="O20" t="n">
-        <v>651.3094652728054</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P20" t="n">
         <v>555.8775600333018</v>
@@ -32497,7 +32497,7 @@
         <v>242.8222548861147</v>
       </c>
       <c r="S20" t="n">
-        <v>88.08727253246317</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T20" t="n">
         <v>16.9216471974046</v>
@@ -32552,19 +32552,19 @@
         <v>195.4067520812345</v>
       </c>
       <c r="K21" t="n">
-        <v>333.9812632363777</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L21" t="n">
         <v>449.0790242691386</v>
       </c>
       <c r="M21" t="n">
-        <v>524.0540396329287</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N21" t="n">
-        <v>537.9241906905495</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O21" t="n">
-        <v>492.0955424609224</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P21" t="n">
         <v>394.9500567342644</v>
@@ -32576,10 +32576,10 @@
         <v>128.4145574700319</v>
       </c>
       <c r="S21" t="n">
-        <v>38.41732487182711</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T21" t="n">
-        <v>8.336604854122578</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U21" t="n">
         <v>0.1360708082827408</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.733973360193177</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H22" t="n">
         <v>15.41659951153571</v>
       </c>
       <c r="I22" t="n">
-        <v>52.14530795926391</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J22" t="n">
         <v>122.5919165656576</v>
@@ -32634,7 +32634,7 @@
         <v>201.4561776660799</v>
       </c>
       <c r="L22" t="n">
-        <v>257.7945484781747</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M22" t="n">
         <v>271.8082059073722</v>
@@ -32652,13 +32652,13 @@
         <v>145.1966238249032</v>
       </c>
       <c r="R22" t="n">
-        <v>77.96574763195864</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S22" t="n">
-        <v>30.21842664991199</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T22" t="n">
-        <v>7.408795266279935</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U22" t="n">
         <v>0.0945803651014461</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.865596161600136</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H23" t="n">
-        <v>39.5885366899874</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I23" t="n">
         <v>149.0283960200894</v>
@@ -32716,13 +32716,13 @@
         <v>610.0200662717139</v>
       </c>
       <c r="M23" t="n">
-        <v>678.7648620105703</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N23" t="n">
         <v>689.7479871047167</v>
       </c>
       <c r="O23" t="n">
-        <v>651.3094652728054</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P23" t="n">
         <v>555.8775600333018</v>
@@ -32734,7 +32734,7 @@
         <v>242.8222548861147</v>
       </c>
       <c r="S23" t="n">
-        <v>88.08727253246317</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T23" t="n">
         <v>16.9216471974046</v>
@@ -32789,19 +32789,19 @@
         <v>195.4067520812345</v>
       </c>
       <c r="K24" t="n">
-        <v>333.9812632363777</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L24" t="n">
         <v>449.0790242691386</v>
       </c>
       <c r="M24" t="n">
-        <v>524.0540396329287</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N24" t="n">
-        <v>537.9241906905495</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O24" t="n">
-        <v>492.0955424609224</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P24" t="n">
         <v>394.9500567342644</v>
@@ -32813,10 +32813,10 @@
         <v>128.4145574700319</v>
       </c>
       <c r="S24" t="n">
-        <v>38.41732487182711</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T24" t="n">
-        <v>8.336604854122578</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U24" t="n">
         <v>0.1360708082827408</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.733973360193177</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H25" t="n">
         <v>15.41659951153571</v>
       </c>
       <c r="I25" t="n">
-        <v>52.14530795926391</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J25" t="n">
         <v>122.5919165656576</v>
@@ -32871,7 +32871,7 @@
         <v>201.4561776660799</v>
       </c>
       <c r="L25" t="n">
-        <v>257.7945484781747</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M25" t="n">
         <v>271.8082059073722</v>
@@ -32889,13 +32889,13 @@
         <v>145.1966238249032</v>
       </c>
       <c r="R25" t="n">
-        <v>77.96574763195864</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S25" t="n">
-        <v>30.21842664991199</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T25" t="n">
-        <v>7.408795266279935</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U25" t="n">
         <v>0.0945803651014461</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.865596161600136</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H26" t="n">
-        <v>39.5885366899874</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I26" t="n">
         <v>149.0283960200894</v>
@@ -32953,13 +32953,13 @@
         <v>610.0200662717139</v>
       </c>
       <c r="M26" t="n">
-        <v>678.7648620105703</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N26" t="n">
         <v>689.7479871047167</v>
       </c>
       <c r="O26" t="n">
-        <v>651.3094652728054</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P26" t="n">
         <v>555.8775600333018</v>
@@ -32971,7 +32971,7 @@
         <v>242.8222548861147</v>
       </c>
       <c r="S26" t="n">
-        <v>88.08727253246317</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T26" t="n">
         <v>16.9216471974046</v>
@@ -33026,19 +33026,19 @@
         <v>195.4067520812345</v>
       </c>
       <c r="K27" t="n">
-        <v>333.9812632363777</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L27" t="n">
         <v>449.0790242691386</v>
       </c>
       <c r="M27" t="n">
-        <v>524.0540396329287</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N27" t="n">
-        <v>537.9241906905495</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O27" t="n">
-        <v>492.0955424609224</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P27" t="n">
         <v>394.9500567342644</v>
@@ -33050,10 +33050,10 @@
         <v>128.4145574700319</v>
       </c>
       <c r="S27" t="n">
-        <v>38.41732487182711</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T27" t="n">
-        <v>8.336604854122578</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U27" t="n">
         <v>0.1360708082827408</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.733973360193177</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H28" t="n">
         <v>15.41659951153571</v>
       </c>
       <c r="I28" t="n">
-        <v>52.14530795926391</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J28" t="n">
         <v>122.5919165656576</v>
@@ -33108,7 +33108,7 @@
         <v>201.4561776660799</v>
       </c>
       <c r="L28" t="n">
-        <v>257.7945484781747</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M28" t="n">
         <v>271.8082059073722</v>
@@ -33126,13 +33126,13 @@
         <v>145.1966238249032</v>
       </c>
       <c r="R28" t="n">
-        <v>77.96574763195864</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S28" t="n">
-        <v>30.21842664991199</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T28" t="n">
-        <v>7.408795266279935</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U28" t="n">
         <v>0.0945803651014461</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.865596161600136</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H29" t="n">
-        <v>39.5885366899874</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I29" t="n">
         <v>149.0283960200894</v>
@@ -33190,13 +33190,13 @@
         <v>610.0200662717139</v>
       </c>
       <c r="M29" t="n">
-        <v>678.7648620105703</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N29" t="n">
         <v>689.7479871047167</v>
       </c>
       <c r="O29" t="n">
-        <v>651.3094652728054</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P29" t="n">
         <v>555.8775600333018</v>
@@ -33208,7 +33208,7 @@
         <v>242.8222548861147</v>
       </c>
       <c r="S29" t="n">
-        <v>88.08727253246317</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T29" t="n">
         <v>16.9216471974046</v>
@@ -33263,19 +33263,19 @@
         <v>195.4067520812345</v>
       </c>
       <c r="K30" t="n">
-        <v>333.9812632363777</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L30" t="n">
         <v>449.0790242691386</v>
       </c>
       <c r="M30" t="n">
-        <v>524.0540396329287</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N30" t="n">
-        <v>537.9241906905495</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O30" t="n">
-        <v>492.0955424609224</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P30" t="n">
         <v>394.9500567342644</v>
@@ -33287,10 +33287,10 @@
         <v>128.4145574700319</v>
       </c>
       <c r="S30" t="n">
-        <v>38.41732487182711</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T30" t="n">
-        <v>8.336604854122578</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U30" t="n">
         <v>0.1360708082827408</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.733973360193177</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H31" t="n">
         <v>15.41659951153571</v>
       </c>
       <c r="I31" t="n">
-        <v>52.14530795926391</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J31" t="n">
         <v>122.5919165656576</v>
@@ -33345,7 +33345,7 @@
         <v>201.4561776660799</v>
       </c>
       <c r="L31" t="n">
-        <v>257.7945484781747</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M31" t="n">
         <v>271.8082059073722</v>
@@ -33363,13 +33363,13 @@
         <v>145.1966238249032</v>
       </c>
       <c r="R31" t="n">
-        <v>77.96574763195864</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S31" t="n">
-        <v>30.21842664991199</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T31" t="n">
-        <v>7.408795266279935</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U31" t="n">
         <v>0.0945803651014461</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.865596161600136</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H32" t="n">
-        <v>39.5885366899874</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I32" t="n">
         <v>149.0283960200894</v>
@@ -33427,13 +33427,13 @@
         <v>610.0200662717139</v>
       </c>
       <c r="M32" t="n">
-        <v>678.7648620105703</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N32" t="n">
         <v>689.7479871047167</v>
       </c>
       <c r="O32" t="n">
-        <v>651.3094652728054</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P32" t="n">
         <v>555.8775600333018</v>
@@ -33445,7 +33445,7 @@
         <v>242.8222548861147</v>
       </c>
       <c r="S32" t="n">
-        <v>88.08727253246317</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T32" t="n">
         <v>16.9216471974046</v>
@@ -33500,19 +33500,19 @@
         <v>195.4067520812345</v>
       </c>
       <c r="K33" t="n">
-        <v>333.9812632363777</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L33" t="n">
         <v>449.0790242691386</v>
       </c>
       <c r="M33" t="n">
-        <v>524.0540396329287</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N33" t="n">
-        <v>537.9241906905495</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O33" t="n">
-        <v>492.0955424609224</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P33" t="n">
         <v>394.9500567342644</v>
@@ -33524,10 +33524,10 @@
         <v>128.4145574700319</v>
       </c>
       <c r="S33" t="n">
-        <v>38.41732487182711</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T33" t="n">
-        <v>8.336604854122578</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U33" t="n">
         <v>0.1360708082827408</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.733973360193177</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H34" t="n">
         <v>15.41659951153571</v>
       </c>
       <c r="I34" t="n">
-        <v>52.14530795926391</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J34" t="n">
         <v>122.5919165656576</v>
@@ -33582,7 +33582,7 @@
         <v>201.4561776660799</v>
       </c>
       <c r="L34" t="n">
-        <v>257.7945484781747</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M34" t="n">
         <v>271.8082059073722</v>
@@ -33600,13 +33600,13 @@
         <v>145.1966238249032</v>
       </c>
       <c r="R34" t="n">
-        <v>77.96574763195864</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S34" t="n">
-        <v>30.21842664991199</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T34" t="n">
-        <v>7.408795266279935</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U34" t="n">
         <v>0.0945803651014461</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.865596161600136</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H35" t="n">
-        <v>39.5885366899874</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I35" t="n">
         <v>149.0283960200894</v>
@@ -33664,13 +33664,13 @@
         <v>610.0200662717139</v>
       </c>
       <c r="M35" t="n">
-        <v>678.7648620105703</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N35" t="n">
         <v>689.7479871047167</v>
       </c>
       <c r="O35" t="n">
-        <v>651.3094652728054</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P35" t="n">
         <v>555.8775600333018</v>
@@ -33682,7 +33682,7 @@
         <v>242.8222548861147</v>
       </c>
       <c r="S35" t="n">
-        <v>88.08727253246317</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T35" t="n">
         <v>16.9216471974046</v>
@@ -33737,19 +33737,19 @@
         <v>195.4067520812345</v>
       </c>
       <c r="K36" t="n">
-        <v>333.9812632363777</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L36" t="n">
         <v>449.0790242691386</v>
       </c>
       <c r="M36" t="n">
-        <v>524.0540396329287</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N36" t="n">
-        <v>537.9241906905495</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O36" t="n">
-        <v>492.0955424609224</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P36" t="n">
         <v>394.9500567342644</v>
@@ -33761,10 +33761,10 @@
         <v>128.4145574700319</v>
       </c>
       <c r="S36" t="n">
-        <v>38.41732487182711</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T36" t="n">
-        <v>8.336604854122578</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U36" t="n">
         <v>0.1360708082827408</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.733973360193177</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H37" t="n">
         <v>15.41659951153571</v>
       </c>
       <c r="I37" t="n">
-        <v>52.14530795926391</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J37" t="n">
         <v>122.5919165656576</v>
@@ -33819,7 +33819,7 @@
         <v>201.4561776660799</v>
       </c>
       <c r="L37" t="n">
-        <v>257.7945484781747</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M37" t="n">
         <v>271.8082059073722</v>
@@ -33837,13 +33837,13 @@
         <v>145.1966238249032</v>
       </c>
       <c r="R37" t="n">
-        <v>77.96574763195864</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S37" t="n">
-        <v>30.21842664991199</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T37" t="n">
-        <v>7.408795266279935</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U37" t="n">
         <v>0.0945803651014461</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.865596161600136</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H38" t="n">
-        <v>39.5885366899874</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I38" t="n">
         <v>149.0283960200894</v>
@@ -33901,13 +33901,13 @@
         <v>610.0200662717139</v>
       </c>
       <c r="M38" t="n">
-        <v>678.7648620105703</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N38" t="n">
         <v>689.7479871047167</v>
       </c>
       <c r="O38" t="n">
-        <v>651.3094652728054</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P38" t="n">
         <v>555.8775600333018</v>
@@ -33919,7 +33919,7 @@
         <v>242.8222548861147</v>
       </c>
       <c r="S38" t="n">
-        <v>88.08727253246317</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T38" t="n">
         <v>16.9216471974046</v>
@@ -33974,19 +33974,19 @@
         <v>195.4067520812345</v>
       </c>
       <c r="K39" t="n">
-        <v>333.9812632363777</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L39" t="n">
         <v>449.0790242691386</v>
       </c>
       <c r="M39" t="n">
-        <v>524.0540396329287</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N39" t="n">
-        <v>537.9241906905495</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O39" t="n">
-        <v>492.0955424609224</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P39" t="n">
         <v>394.9500567342644</v>
@@ -33998,10 +33998,10 @@
         <v>128.4145574700319</v>
       </c>
       <c r="S39" t="n">
-        <v>38.41732487182711</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T39" t="n">
-        <v>8.336604854122578</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U39" t="n">
         <v>0.1360708082827408</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.733973360193177</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H40" t="n">
         <v>15.41659951153571</v>
       </c>
       <c r="I40" t="n">
-        <v>52.14530795926391</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J40" t="n">
         <v>122.5919165656576</v>
@@ -34056,7 +34056,7 @@
         <v>201.4561776660799</v>
       </c>
       <c r="L40" t="n">
-        <v>257.7945484781747</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M40" t="n">
         <v>271.8082059073722</v>
@@ -34074,13 +34074,13 @@
         <v>145.1966238249032</v>
       </c>
       <c r="R40" t="n">
-        <v>77.96574763195864</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S40" t="n">
-        <v>30.21842664991199</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T40" t="n">
-        <v>7.408795266279935</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U40" t="n">
         <v>0.0945803651014461</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.865596161600136</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H41" t="n">
-        <v>39.5885366899874</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I41" t="n">
         <v>149.0283960200894</v>
@@ -34138,13 +34138,13 @@
         <v>610.0200662717139</v>
       </c>
       <c r="M41" t="n">
-        <v>678.7648620105703</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N41" t="n">
         <v>689.7479871047167</v>
       </c>
       <c r="O41" t="n">
-        <v>651.3094652728054</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P41" t="n">
         <v>555.8775600333018</v>
@@ -34156,7 +34156,7 @@
         <v>242.8222548861147</v>
       </c>
       <c r="S41" t="n">
-        <v>88.08727253246317</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T41" t="n">
         <v>16.9216471974046</v>
@@ -34211,19 +34211,19 @@
         <v>195.4067520812345</v>
       </c>
       <c r="K42" t="n">
-        <v>333.9812632363777</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L42" t="n">
         <v>449.0790242691386</v>
       </c>
       <c r="M42" t="n">
-        <v>524.0540396329287</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N42" t="n">
-        <v>537.9241906905495</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O42" t="n">
-        <v>492.0955424609224</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P42" t="n">
         <v>394.9500567342644</v>
@@ -34235,10 +34235,10 @@
         <v>128.4145574700319</v>
       </c>
       <c r="S42" t="n">
-        <v>38.41732487182711</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T42" t="n">
-        <v>8.336604854122578</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U42" t="n">
         <v>0.1360708082827408</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.733973360193177</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H43" t="n">
         <v>15.41659951153571</v>
       </c>
       <c r="I43" t="n">
-        <v>52.14530795926391</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J43" t="n">
         <v>122.5919165656576</v>
@@ -34293,7 +34293,7 @@
         <v>201.4561776660799</v>
       </c>
       <c r="L43" t="n">
-        <v>257.7945484781747</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M43" t="n">
         <v>271.8082059073722</v>
@@ -34311,13 +34311,13 @@
         <v>145.1966238249032</v>
       </c>
       <c r="R43" t="n">
-        <v>77.96574763195864</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S43" t="n">
-        <v>30.21842664991199</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T43" t="n">
-        <v>7.408795266279935</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U43" t="n">
         <v>0.0945803651014461</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.865596161600136</v>
+        <v>3.865596161600135</v>
       </c>
       <c r="H44" t="n">
-        <v>39.5885366899874</v>
+        <v>39.58853668998739</v>
       </c>
       <c r="I44" t="n">
         <v>149.0283960200894</v>
@@ -34369,19 +34369,19 @@
         <v>328.0876422206098</v>
       </c>
       <c r="K44" t="n">
-        <v>354.1805859021539</v>
+        <v>491.7183277411436</v>
       </c>
       <c r="L44" t="n">
-        <v>610.0200662717139</v>
+        <v>472.4823244327244</v>
       </c>
       <c r="M44" t="n">
-        <v>678.7648620105703</v>
+        <v>678.7648620105701</v>
       </c>
       <c r="N44" t="n">
         <v>689.7479871047167</v>
       </c>
       <c r="O44" t="n">
-        <v>651.3094652728054</v>
+        <v>651.3094652728053</v>
       </c>
       <c r="P44" t="n">
         <v>555.8775600333018</v>
@@ -34393,7 +34393,7 @@
         <v>242.8222548861147</v>
       </c>
       <c r="S44" t="n">
-        <v>88.08727253246317</v>
+        <v>88.08727253246316</v>
       </c>
       <c r="T44" t="n">
         <v>16.9216471974046</v>
@@ -34448,19 +34448,19 @@
         <v>195.4067520812345</v>
       </c>
       <c r="K45" t="n">
-        <v>333.9812632363777</v>
+        <v>333.9812632363776</v>
       </c>
       <c r="L45" t="n">
         <v>449.0790242691386</v>
       </c>
       <c r="M45" t="n">
-        <v>524.0540396329287</v>
+        <v>524.0540396329286</v>
       </c>
       <c r="N45" t="n">
-        <v>537.9241906905495</v>
+        <v>537.9241906905494</v>
       </c>
       <c r="O45" t="n">
-        <v>492.0955424609224</v>
+        <v>492.0955424609223</v>
       </c>
       <c r="P45" t="n">
         <v>394.9500567342644</v>
@@ -34472,10 +34472,10 @@
         <v>128.4145574700319</v>
       </c>
       <c r="S45" t="n">
-        <v>38.41732487182711</v>
+        <v>38.4173248718271</v>
       </c>
       <c r="T45" t="n">
-        <v>8.336604854122578</v>
+        <v>8.336604854122577</v>
       </c>
       <c r="U45" t="n">
         <v>0.1360708082827408</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.733973360193177</v>
+        <v>1.733973360193176</v>
       </c>
       <c r="H46" t="n">
         <v>15.41659951153571</v>
       </c>
       <c r="I46" t="n">
-        <v>52.14530795926391</v>
+        <v>52.1453079592639</v>
       </c>
       <c r="J46" t="n">
         <v>122.5919165656576</v>
@@ -34530,7 +34530,7 @@
         <v>201.4561776660799</v>
       </c>
       <c r="L46" t="n">
-        <v>257.7945484781747</v>
+        <v>257.7945484781746</v>
       </c>
       <c r="M46" t="n">
         <v>271.8082059073722</v>
@@ -34548,13 +34548,13 @@
         <v>145.1966238249032</v>
       </c>
       <c r="R46" t="n">
-        <v>77.96574763195864</v>
+        <v>77.96574763195862</v>
       </c>
       <c r="S46" t="n">
-        <v>30.21842664991199</v>
+        <v>30.21842664991198</v>
       </c>
       <c r="T46" t="n">
-        <v>7.408795266279935</v>
+        <v>7.408795266279934</v>
       </c>
       <c r="U46" t="n">
         <v>0.0945803651014461</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>214.3003567596932</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35191,7 +35191,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>68.29072693268387</v>
@@ -35264,13 +35264,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>258.1628674087126</v>
       </c>
       <c r="P9" t="n">
-        <v>195.3544725568835</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>147.0417376939235</v>
       </c>
       <c r="K11" t="n">
-        <v>271.6284766961631</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L11" t="n">
         <v>374.2536513017266</v>
       </c>
       <c r="M11" t="n">
-        <v>448.4186287832975</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N11" t="n">
         <v>460.3349235081258</v>
       </c>
       <c r="O11" t="n">
-        <v>421.2112538511186</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P11" t="n">
         <v>324.6445642780323</v>
@@ -35431,7 +35431,7 @@
         <v>195.1352076215474</v>
       </c>
       <c r="R11" t="n">
-        <v>27.23671707198258</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>68.56912541456785</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K12" t="n">
-        <v>196.1398242620187</v>
+        <v>294.0960148009282</v>
       </c>
       <c r="L12" t="n">
         <v>310.5246444892645</v>
       </c>
       <c r="M12" t="n">
-        <v>381.9200057109104</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N12" t="n">
-        <v>406.5824786072162</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O12" t="n">
-        <v>674.2872727545556</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P12" t="n">
-        <v>370.3121881970233</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q12" t="n">
-        <v>124.0318795313709</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>29.23273644898481</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K13" t="n">
-        <v>179.1866858401971</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L13" t="n">
-        <v>285.3845737384909</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M13" t="n">
-        <v>311.3920828692128</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N13" t="n">
         <v>309.4773866713355</v>
@@ -35647,19 +35647,19 @@
         <v>147.0417376939235</v>
       </c>
       <c r="K14" t="n">
-        <v>271.6284766961631</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L14" t="n">
         <v>374.2536513017266</v>
       </c>
       <c r="M14" t="n">
-        <v>448.4186287832975</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N14" t="n">
         <v>460.3349235081258</v>
       </c>
       <c r="O14" t="n">
-        <v>421.2112538511186</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P14" t="n">
         <v>324.6445642780323</v>
@@ -35668,7 +35668,7 @@
         <v>195.1352076215474</v>
       </c>
       <c r="R14" t="n">
-        <v>27.23671707198258</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>194.6601607549767</v>
       </c>
       <c r="K15" t="n">
-        <v>196.1398242620187</v>
+        <v>196.1398242620186</v>
       </c>
       <c r="L15" t="n">
         <v>310.5246444892645</v>
       </c>
       <c r="M15" t="n">
-        <v>381.9200057109104</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N15" t="n">
-        <v>406.5824786072162</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O15" t="n">
-        <v>349.499298016478</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P15" t="n">
-        <v>358.931839858843</v>
+        <v>358.9318398588437</v>
       </c>
       <c r="Q15" t="n">
         <v>334.10916726722</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>29.23273644898481</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K16" t="n">
-        <v>179.1866858401971</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L16" t="n">
-        <v>285.3845737384909</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M16" t="n">
-        <v>311.3920828692128</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N16" t="n">
         <v>309.4773866713355</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>147.0417376939232</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K17" t="n">
-        <v>271.6284766961631</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L17" t="n">
         <v>374.2536513017266</v>
       </c>
       <c r="M17" t="n">
-        <v>448.4186287832975</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N17" t="n">
         <v>460.3349235081258</v>
       </c>
       <c r="O17" t="n">
-        <v>421.2112538511186</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P17" t="n">
         <v>324.6445642780323</v>
@@ -35905,7 +35905,7 @@
         <v>195.1352076215474</v>
       </c>
       <c r="R17" t="n">
-        <v>27.23671707198258</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>68.56912541456785</v>
       </c>
       <c r="K18" t="n">
-        <v>196.1398242620187</v>
+        <v>196.1398242620186</v>
       </c>
       <c r="L18" t="n">
         <v>310.5246444892645</v>
       </c>
       <c r="M18" t="n">
-        <v>381.9200057109104</v>
+        <v>497.5817506861404</v>
       </c>
       <c r="N18" t="n">
-        <v>406.5824786072162</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O18" t="n">
-        <v>465.1610429917072</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P18" t="n">
-        <v>579.4384179598713</v>
+        <v>579.4384179598712</v>
       </c>
       <c r="Q18" t="n">
         <v>124.0318795313709</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>29.23273644898481</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K19" t="n">
-        <v>179.1866858401971</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L19" t="n">
-        <v>285.3845737384909</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M19" t="n">
-        <v>311.3920828692128</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N19" t="n">
         <v>309.4773866713355</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>284.5794795329135</v>
+        <v>147.0417376939235</v>
       </c>
       <c r="K20" t="n">
-        <v>271.6284766961631</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L20" t="n">
         <v>374.2536513017266</v>
       </c>
       <c r="M20" t="n">
-        <v>448.4186287832975</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N20" t="n">
         <v>460.3349235081258</v>
       </c>
       <c r="O20" t="n">
-        <v>421.2112538511186</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P20" t="n">
-        <v>324.6445642780323</v>
+        <v>462.1823061170211</v>
       </c>
       <c r="Q20" t="n">
         <v>195.1352076215474</v>
       </c>
       <c r="R20" t="n">
-        <v>27.23671707198258</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>194.6601607549767</v>
       </c>
       <c r="K21" t="n">
-        <v>196.1398242620187</v>
+        <v>294.0960148009285</v>
       </c>
       <c r="L21" t="n">
         <v>310.5246444892645</v>
       </c>
       <c r="M21" t="n">
-        <v>381.9200057109104</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N21" t="n">
-        <v>406.5824786072162</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O21" t="n">
-        <v>349.499298016478</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P21" t="n">
-        <v>358.9318398588433</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q21" t="n">
         <v>334.10916726722</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>29.23273644898481</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K22" t="n">
-        <v>179.1866858401971</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L22" t="n">
-        <v>285.3845737384909</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M22" t="n">
-        <v>311.3920828692128</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N22" t="n">
         <v>309.4773866713355</v>
@@ -36364,13 +36364,13 @@
         <v>791.9148658521771</v>
       </c>
       <c r="M23" t="n">
-        <v>897.93216227613</v>
+        <v>897.9321622761299</v>
       </c>
       <c r="N23" t="n">
         <v>897.6818479201099</v>
       </c>
       <c r="O23" t="n">
-        <v>802.011435113864</v>
+        <v>802.0114351138639</v>
       </c>
       <c r="P23" t="n">
         <v>415.5739047130508</v>
@@ -36379,7 +36379,7 @@
         <v>195.1352076215474</v>
       </c>
       <c r="R23" t="n">
-        <v>27.23671707198258</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>194.6601607549767</v>
       </c>
       <c r="K24" t="n">
-        <v>196.1398242620187</v>
+        <v>294.0960148009285</v>
       </c>
       <c r="L24" t="n">
         <v>310.5246444892645</v>
       </c>
       <c r="M24" t="n">
-        <v>381.9200057109104</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N24" t="n">
-        <v>406.5824786072162</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O24" t="n">
-        <v>349.499298016478</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P24" t="n">
-        <v>358.9318398588435</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q24" t="n">
         <v>334.10916726722</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>29.23273644898481</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K25" t="n">
-        <v>179.1866858401971</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L25" t="n">
-        <v>285.3845737384909</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M25" t="n">
-        <v>311.3920828692128</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N25" t="n">
         <v>309.4773866713355</v>
@@ -36595,19 +36595,19 @@
         <v>147.0417376939235</v>
       </c>
       <c r="K26" t="n">
-        <v>271.6284766961631</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L26" t="n">
         <v>374.2536513017266</v>
       </c>
       <c r="M26" t="n">
-        <v>448.4186287832975</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N26" t="n">
         <v>460.3349235081258</v>
       </c>
       <c r="O26" t="n">
-        <v>421.2112538511186</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P26" t="n">
         <v>324.6445642780323</v>
@@ -36616,7 +36616,7 @@
         <v>195.1352076215474</v>
       </c>
       <c r="R26" t="n">
-        <v>27.23671707198258</v>
+        <v>27.23671707198209</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>68.56912541456785</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K27" t="n">
-        <v>196.1398242620187</v>
+        <v>294.0960148009282</v>
       </c>
       <c r="L27" t="n">
-        <v>426.1863894644942</v>
+        <v>310.5246444892645</v>
       </c>
       <c r="M27" t="n">
-        <v>381.9200057109104</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N27" t="n">
-        <v>406.5824786072162</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O27" t="n">
-        <v>349.499298016478</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P27" t="n">
-        <v>579.4384179598713</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q27" t="n">
-        <v>124.0318795313709</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>29.23273644898481</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K28" t="n">
-        <v>179.1866858401971</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L28" t="n">
-        <v>285.3845737384909</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M28" t="n">
-        <v>311.3920828692128</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N28" t="n">
         <v>309.4773866713355</v>
@@ -36832,19 +36832,19 @@
         <v>147.0417376939235</v>
       </c>
       <c r="K29" t="n">
-        <v>271.6284766961631</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L29" t="n">
         <v>374.2536513017266</v>
       </c>
       <c r="M29" t="n">
-        <v>448.4186287832975</v>
+        <v>448.418628783297</v>
       </c>
       <c r="N29" t="n">
         <v>460.3349235081258</v>
       </c>
       <c r="O29" t="n">
-        <v>421.2112538511186</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P29" t="n">
         <v>324.6445642780323</v>
@@ -36853,7 +36853,7 @@
         <v>195.1352076215474</v>
       </c>
       <c r="R29" t="n">
-        <v>27.23671707198301</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>194.6601607549767</v>
       </c>
       <c r="K30" t="n">
-        <v>196.1398242620187</v>
+        <v>294.0960148009282</v>
       </c>
       <c r="L30" t="n">
         <v>310.5246444892645</v>
       </c>
       <c r="M30" t="n">
-        <v>381.9200057109104</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N30" t="n">
-        <v>406.5824786072162</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O30" t="n">
-        <v>349.499298016478</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P30" t="n">
-        <v>358.931839858843</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q30" t="n">
         <v>334.10916726722</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>29.23273644898481</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K31" t="n">
-        <v>179.1866858401971</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L31" t="n">
-        <v>285.3845737384909</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M31" t="n">
-        <v>311.3920828692128</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N31" t="n">
         <v>309.4773866713355</v>
@@ -37069,19 +37069,19 @@
         <v>147.0417376939235</v>
       </c>
       <c r="K32" t="n">
-        <v>271.6284766961631</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L32" t="n">
         <v>374.2536513017266</v>
       </c>
       <c r="M32" t="n">
-        <v>448.4186287832975</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N32" t="n">
-        <v>460.3349235081263</v>
+        <v>460.3349235081258</v>
       </c>
       <c r="O32" t="n">
-        <v>421.2112538511186</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P32" t="n">
         <v>324.6445642780323</v>
@@ -37090,7 +37090,7 @@
         <v>195.1352076215474</v>
       </c>
       <c r="R32" t="n">
-        <v>27.23671707198258</v>
+        <v>27.23671707198209</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>194.6601607549767</v>
       </c>
       <c r="K33" t="n">
-        <v>236.468508389437</v>
+        <v>294.0960148009282</v>
       </c>
       <c r="L33" t="n">
         <v>310.5246444892645</v>
       </c>
       <c r="M33" t="n">
-        <v>381.9200057109104</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N33" t="n">
-        <v>674.2872727545558</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O33" t="n">
-        <v>349.499298016478</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P33" t="n">
-        <v>260.9756493199342</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q33" t="n">
-        <v>124.0318795313709</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>29.23273644898481</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K34" t="n">
-        <v>179.1866858401971</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L34" t="n">
-        <v>285.3845737384909</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M34" t="n">
-        <v>311.3920828692128</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N34" t="n">
         <v>309.4773866713355</v>
@@ -37306,19 +37306,19 @@
         <v>147.0417376939235</v>
       </c>
       <c r="K35" t="n">
-        <v>271.6284766961631</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L35" t="n">
         <v>374.2536513017266</v>
       </c>
       <c r="M35" t="n">
-        <v>448.4186287832975</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N35" t="n">
         <v>460.3349235081258</v>
       </c>
       <c r="O35" t="n">
-        <v>421.2112538511186</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P35" t="n">
         <v>324.6445642780323</v>
@@ -37327,7 +37327,7 @@
         <v>195.1352076215474</v>
       </c>
       <c r="R35" t="n">
-        <v>27.23671707198301</v>
+        <v>27.23671707198209</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37385,25 @@
         <v>194.6601607549767</v>
       </c>
       <c r="K36" t="n">
-        <v>460.6050612745973</v>
+        <v>294.0960148009282</v>
       </c>
       <c r="L36" t="n">
         <v>310.5246444892645</v>
       </c>
       <c r="M36" t="n">
-        <v>381.9200057109104</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N36" t="n">
-        <v>406.5824786072162</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O36" t="n">
-        <v>349.499298016478</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P36" t="n">
-        <v>260.9756493199342</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q36" t="n">
-        <v>167.6001207935503</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>29.23273644898481</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K37" t="n">
-        <v>179.1866858401971</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L37" t="n">
-        <v>285.3845737384909</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M37" t="n">
-        <v>311.3920828692128</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N37" t="n">
         <v>309.4773866713355</v>
@@ -37543,28 +37543,28 @@
         <v>147.0417376939235</v>
       </c>
       <c r="K38" t="n">
-        <v>271.6284766961631</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L38" t="n">
         <v>374.2536513017266</v>
       </c>
       <c r="M38" t="n">
-        <v>448.4186287832975</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N38" t="n">
         <v>460.3349235081258</v>
       </c>
       <c r="O38" t="n">
-        <v>421.2112538511186</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P38" t="n">
         <v>324.6445642780323</v>
       </c>
       <c r="Q38" t="n">
-        <v>195.1352076215478</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R38" t="n">
-        <v>27.23671707198258</v>
+        <v>27.23671707198209</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>194.6601607549767</v>
       </c>
       <c r="K39" t="n">
-        <v>236.468508389437</v>
+        <v>294.0960148009282</v>
       </c>
       <c r="L39" t="n">
         <v>310.5246444892645</v>
       </c>
       <c r="M39" t="n">
-        <v>381.9200057109104</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N39" t="n">
-        <v>674.2872727545558</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O39" t="n">
-        <v>349.499298016478</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P39" t="n">
-        <v>260.9756493199342</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q39" t="n">
-        <v>124.0318795313709</v>
+        <v>334.10916726722</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>29.23273644898481</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K40" t="n">
-        <v>179.1866858401971</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L40" t="n">
-        <v>285.3845737384909</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M40" t="n">
-        <v>311.3920828692128</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N40" t="n">
         <v>309.4773866713355</v>
@@ -37780,28 +37780,28 @@
         <v>147.0417376939235</v>
       </c>
       <c r="K41" t="n">
-        <v>271.6284766961631</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L41" t="n">
         <v>374.2536513017266</v>
       </c>
       <c r="M41" t="n">
-        <v>448.4186287832975</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N41" t="n">
         <v>460.3349235081258</v>
       </c>
       <c r="O41" t="n">
-        <v>421.2112538511186</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P41" t="n">
         <v>324.6445642780323</v>
       </c>
       <c r="Q41" t="n">
-        <v>195.1352076215478</v>
+        <v>195.1352076215474</v>
       </c>
       <c r="R41" t="n">
-        <v>27.23671707198258</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>194.6601607549767</v>
       </c>
       <c r="K42" t="n">
-        <v>294.0960148009277</v>
+        <v>294.0960148009282</v>
       </c>
       <c r="L42" t="n">
         <v>310.5246444892645</v>
       </c>
       <c r="M42" t="n">
-        <v>381.9200057109104</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N42" t="n">
-        <v>406.5824786072162</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O42" t="n">
-        <v>349.499298016478</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P42" t="n">
-        <v>260.9756493199342</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q42" t="n">
         <v>334.10916726722</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>29.23273644898481</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1866858401971</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L43" t="n">
-        <v>285.3845737384909</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M43" t="n">
-        <v>311.3920828692128</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N43" t="n">
         <v>309.4773866713355</v>
@@ -38017,19 +38017,19 @@
         <v>147.0417376939235</v>
       </c>
       <c r="K44" t="n">
-        <v>134.0907348571734</v>
+        <v>271.628476696163</v>
       </c>
       <c r="L44" t="n">
-        <v>374.2536513017266</v>
+        <v>236.7159094627372</v>
       </c>
       <c r="M44" t="n">
-        <v>448.4186287832975</v>
+        <v>448.4186287832974</v>
       </c>
       <c r="N44" t="n">
         <v>460.3349235081258</v>
       </c>
       <c r="O44" t="n">
-        <v>421.2112538511186</v>
+        <v>421.2112538511185</v>
       </c>
       <c r="P44" t="n">
         <v>324.6445642780323</v>
@@ -38038,7 +38038,7 @@
         <v>195.1352076215474</v>
       </c>
       <c r="R44" t="n">
-        <v>27.23671707198258</v>
+        <v>27.23671707198255</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>68.56912541456785</v>
+        <v>194.6601607549767</v>
       </c>
       <c r="K45" t="n">
-        <v>311.8015692372487</v>
+        <v>460.6050612745972</v>
       </c>
       <c r="L45" t="n">
-        <v>310.5246444892645</v>
+        <v>354.0928857514446</v>
       </c>
       <c r="M45" t="n">
-        <v>381.9200057109104</v>
+        <v>381.9200057109103</v>
       </c>
       <c r="N45" t="n">
-        <v>406.5824786072162</v>
+        <v>406.5824786072161</v>
       </c>
       <c r="O45" t="n">
-        <v>349.499298016478</v>
+        <v>349.4992980164779</v>
       </c>
       <c r="P45" t="n">
-        <v>579.4384179598713</v>
+        <v>260.9756493199341</v>
       </c>
       <c r="Q45" t="n">
         <v>124.0318795313709</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>29.23273644898481</v>
+        <v>29.2327364489848</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1866858401971</v>
+        <v>179.186685840197</v>
       </c>
       <c r="L46" t="n">
-        <v>285.3845737384909</v>
+        <v>285.3845737384908</v>
       </c>
       <c r="M46" t="n">
-        <v>311.3920828692128</v>
+        <v>311.3920828692127</v>
       </c>
       <c r="N46" t="n">
         <v>309.4773866713355</v>
